--- a/data/hotels_by_city/Houston/Houston_shard_36.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_36.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56432-d73283-Reviews-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Best-Western-Pearland-Inn.h42934.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1119 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r543502124-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>73283</t>
+  </si>
+  <si>
+    <t>543502124</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Very good hotel for the money</t>
+  </si>
+  <si>
+    <t>Rooms were neat, clean (not fancy, but very comfortable), staff was wonderful at check in and check out. A great value for the price. Breakfast was good. We started staying here over Drury due to location and value for the price.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r538646221-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>538646221</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Houston visit</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel, sparkling pool, landscaping is neat and attractive. Bed was comfortable, room was clean and neat, shower had great pressure, I will stay here again the next time I am in this area and recommend it to others.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r534499028-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>534499028</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>when in Pearland</t>
+  </si>
+  <si>
+    <t>easy in easy out ,nice bed pool area is outstanding i think the cleanliness would have been better but area is dealing with hurricane Harvey dislocated people there is a wal-mart next to the hotel places to eat within walking distance  located right off highway 35 thus high marks for location</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r494731672-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>494731672</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Beautiful Hotel</t>
+  </si>
+  <si>
+    <t>The rooms are quite large, bedding is fresh.  Impressed that I visit every year and the rooms seem to have had all fixtures replaced with brand new.  Parking is great.  Close to restaurants and Walmart next door.  The pool area is absolutely beautiful.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r490091612-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>490091612</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Best Western stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The toilets were way to low. They appear to be day care or kindergarten style. The room was clean and the service was good.  The staff was friendly and willing to help. Never saw a gym room but the pool was clean and nice. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r477871708-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>477871708</t>
+  </si>
+  <si>
+    <t>04/21/2017</t>
+  </si>
+  <si>
+    <t>last-minutefamily trip</t>
+  </si>
+  <si>
+    <t>found this hotel for a quick trip to see the grandchildren.  Hotel was very close to the rest of the family.  my wife's main comment was about how clean the was, and how she appreciated the staff's work.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r475860206-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>475860206</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Was in town for a wedding</t>
+  </si>
+  <si>
+    <t>Was a great hotel I stay at a lot of hotels and this was just as nice as most the price was great. The pool area was very nice and very relaxing. Walmart is right next door. Was able to walk to it even at night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r466578347-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>466578347</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Would be "very good" except breakfast not great</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights before going on a cruise out of Galveston. The location if convenient -- it's about half way from Houston to Galveston, about 20 minutes from the Houston Space Center, and has a lot of amenities nearby (including a huge Walmart within walking distance). The lobby and room were clean and well-appointed. The staff were very friendly and helpful. The breakfast room was nice and bright, but we weren't impressed with the food options -- no hot food like eggs or sausages, although you could toast your own bagels/toast or mix up a bowl of hot oatmeal. One thing I personally didn't like, because I don't smoke, is that the morning desk staff person took her smoking breaks right outside the door to the lobby, so we had to walk through smoke several times to go in or out.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for two nights before going on a cruise out of Galveston. The location if convenient -- it's about half way from Houston to Galveston, about 20 minutes from the Houston Space Center, and has a lot of amenities nearby (including a huge Walmart within walking distance). The lobby and room were clean and well-appointed. The staff were very friendly and helpful. The breakfast room was nice and bright, but we weren't impressed with the food options -- no hot food like eggs or sausages, although you could toast your own bagels/toast or mix up a bowl of hot oatmeal. One thing I personally didn't like, because I don't smoke, is that the morning desk staff person took her smoking breaks right outside the door to the lobby, so we had to walk through smoke several times to go in or out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r454542632-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>454542632</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Awesome place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent service ,clean all what you expect from a best western when I'm out on the road with business I always looks for a best western first. Never had a problem with any of them that I've stayed at. </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r444888314-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>444888314</t>
+  </si>
+  <si>
+    <t>12/17/2016</t>
+  </si>
+  <si>
+    <t>Water in the house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pipe broke in out home so we needed a place to sleep. We worked at the house during the day then slept in the hotel at night.  It was nice to have a  dry place to relax after working in the messy house all day.  </t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r435747970-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>435747970</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Perland Stay</t>
+  </si>
+  <si>
+    <t>The price was decent , the room was spacious. breakfast on the other hand was horrible. expired juice in the juice machine that only got worse everyday and staff didn't seem to notice it. breakfast hours were until 9AM but no one bothered to make more coffee or replace any food that ran out.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r418604499-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>418604499</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Older style hotel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros: Nice staff. Clean.  Comfortable beds. Nice pool area. Good value.  Cons;  Outdoor entrances to rooms.  No elevator. Small Breakfast  area that had no juices at all, Only microwavable breakfast sandwiches. Only wooden kitchen style table and chairs in room.  </t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r399185255-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>399185255</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bed not the greatest. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok for overnight stop on way to Galveston but bed wasn't the greatest. If you like Hard beds, its the place to stop. Nice pool area. Clean overall. Front desk was friendly. Small breakfast area w fairly good selection. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r389970038-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>389970038</t>
+  </si>
+  <si>
+    <t>07/06/2016</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Rooms need updating...other hotels offer better breakfast options for the same rate...conveniently located, walking distance to Walmart and several eating places    hotel staff is pleasant and  professional</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r388164373-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>388164373</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Not welcoming</t>
+  </si>
+  <si>
+    <t>We stayed but found it not welcoming.  Seemed not to understand hotel basics of courtesy. Breakfast area small and no hot food except pancakes.  Odd décor in rooms.  Maids are nice but  place is different from other Best Westerns we stayed at.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r378891452-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>378891452</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Houston Regular</t>
+  </si>
+  <si>
+    <t>For the price...the best place just outside of town(south side) to stay.  Been staying here over 20 years.  Very good people and a very nice clean hotel.  Once you get to know the people there they will take great care of you.  Never consider staying elsewhere.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r375998378-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>375998378</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Misleading Advertising</t>
+  </si>
+  <si>
+    <t>I'm not sure.  Online, this facility was advertised as having a full continental breakfast and offered pictures with waffle maker etc.  It had, at best,a very sparse continental breakfast with wrapped danish rolls, coffee.  We chose this place on that representation the price is no better than the place across the street and this was the added value.  The place is undergoing a cosmetic renovation but the furnishings are still very dated.  The internet service is slow and spotty and almost completely unavailable at night always switching you to a public CISCO site.  The only saving grace was the desk agent who went out of her way to try to make things right by changing us to a downstairs room.  There wasn't much more she could do.MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm not sure.  Online, this facility was advertised as having a full continental breakfast and offered pictures with waffle maker etc.  It had, at best,a very sparse continental breakfast with wrapped danish rolls, coffee.  We chose this place on that representation the price is no better than the place across the street and this was the added value.  The place is undergoing a cosmetic renovation but the furnishings are still very dated.  The internet service is slow and spotty and almost completely unavailable at night always switching you to a public CISCO site.  The only saving grace was the desk agent who went out of her way to try to make things right by changing us to a downstairs room.  There wasn't much more she could do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r373965588-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>373965588</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel, good price</t>
+  </si>
+  <si>
+    <t>The room was clean. Bathroom had a large vanity area. Good shower head with good pressure. Lobby was well kept. Restaurants and shopping very close to hotel. Overall a clean, quiet stay and great price.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r363795270-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>363795270</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Anniversary</t>
+  </si>
+  <si>
+    <t>We have stayed at this Best Western for our Anniversary for the last 4 years.  Always an excellent Hotel and Staff.  Pool and Landscaping are really nice.  Only place we stay or consider when in Pearland.  Stay several more times during the year. I have never had a bad experience.  Enjoy everyone there.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r355466237-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>355466237</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>not your best</t>
+  </si>
+  <si>
+    <t>the check-in went well. had a problem with my charge card, but it was cleared up in a timely manner. as a diamond member was offered neither a welcome bag or points. we were placed in a out of the way corner room. the breakfast was not even close to the average best western. we would not return or recommend to others.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r354709983-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>354709983</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Great Experience at this Hotel</t>
+  </si>
+  <si>
+    <t>This hotel was extremely clean and the bed was very comfortable. Our stay here was great. The check in was very easy and friendly. The location was great. My favorite was the cleanliness of the room. It smelled amazing and the bed was very clean. Could not ask for a better stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r348615056-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>348615056</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>No frills, but great for money!</t>
+  </si>
+  <si>
+    <t>They have your tv remote in a sanitized envelope. I liked that! Clean and quiet when I stayed. Pool area is nice! Dog friendly..staff was real nice. I would stay there again! No frills but excellent choice when on a budget</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r334412443-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>334412443</t>
+  </si>
+  <si>
+    <t>12/17/2015</t>
+  </si>
+  <si>
+    <t>Great stay at a great price !</t>
+  </si>
+  <si>
+    <t>We were in town on a business trip and this hotel was fantastic ! Great price, great room and a super helpful staff ! It is close to local shopping and restaurants and easy to find when you are from out of town ! When we are back in town, and we will be . We will stay here for sure !!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r334411192-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>334411192</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>CLEAN AND ECONOMICAL</t>
+  </si>
+  <si>
+    <t>We have found that Best Western, for the most part, is a very consistent motel chain.  The rooms are normally clean and this property in Pearland Texas is no different.  We would have preferred a full breakfast, however the continental breakfast was good and the coffee great.  I would recommend that the continental breakfast last a little longer.  It ends at 9:00AM so if you sleep in you may miss it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r313195645-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>313195645</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We checked in during night audit shift &amp; agent was welcoming and very helpful. We stayed 2 nights and the next day around 11 we were able to switch to a smoking room since there were none available when we checked in. I loved the cleanliness of both rooms we stayed in. Housekeepers do a great job in making sure the rooms are "guest ready'. I came in contact with 3 different front desk clerks during our stay and they made me feel welcome and at home. I'm glad we chose you're Best Western during our trip and will definitely stay again when go back. Thanks for your hospitality. =)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We checked in during night audit shift &amp; agent was welcoming and very helpful. We stayed 2 nights and the next day around 11 we were able to switch to a smoking room since there were none available when we checked in. I loved the cleanliness of both rooms we stayed in. Housekeepers do a great job in making sure the rooms are "guest ready'. I came in contact with 3 different front desk clerks during our stay and they made me feel welcome and at home. I'm glad we chose you're Best Western during our trip and will definitely stay again when go back. Thanks for your hospitality. =)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r312085196-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>312085196</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Came to Pearland for unexpected funeral. BestWestern Pearland one night. Funeral starts at 2 Sunday and they wanted to charge me an extra $30 to stay and change clothes for the funeral. Breakfast cold cereal and stale pastry. Room Spartan but clean. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r302038929-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>302038929</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Nice, Relaxing and Quiet</t>
+  </si>
+  <si>
+    <t>Very nice pool. It was so relaxing to swim with the surroundings of the waterfall. The room was very clean, and everything was in working order in the room. Walmart a two minute walk. Enjoyed my stay! No Jacuzzi, by the pool. It was cemented in.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r293564281-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>293564281</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Convenient</t>
+  </si>
+  <si>
+    <t>The hotel was conveniently located for all our needs The staff were friendly and helpful. Even though the hotel was hard to see from the road, it was an attractive setting and hotel. Right next door to Walmart.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r291323735-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>291323735</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Good hotel for the price</t>
+  </si>
+  <si>
+    <t>Good place to stay.I checked into hotel late and was happily surprised the staff had set room aside. I requested a 1st floor room when I arrived and was moved immediately. Thanks because they only had 2 rooms left. My parking was right in front of my room</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r283774211-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>283774211</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>For $132.00, stay elsewhere!</t>
+  </si>
+  <si>
+    <t>I know that a front desk person has access to my hotel history, and my Best Western history dates back to 1991. This front desk clerk asked for many forms of ID and did not want to give me the AAA discount because I forgot my card.  It was not much of a discount to begin with (1 king bed for 132.00 total) so I was a bit offended, as it was my son and I checking in early in the afternoon to wait for Daddy. I checked into my room finally and wow, It was small for that price, not even a couch. There was a small jetted tub in which components were falling off but we figured it out and enjoyed the tub. The outdoor pool is clean and relaxing and would be the main interest of this property, as otherwise it is a roadside motor inn, with vagabonds and old rusting vending machines scattered throughout the property. This property is clearly not owned by someone that is passionate about while traveling, this property is all about the money, honey!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I know that a front desk person has access to my hotel history, and my Best Western history dates back to 1991. This front desk clerk asked for many forms of ID and did not want to give me the AAA discount because I forgot my card.  It was not much of a discount to begin with (1 king bed for 132.00 total) so I was a bit offended, as it was my son and I checking in early in the afternoon to wait for Daddy. I checked into my room finally and wow, It was small for that price, not even a couch. There was a small jetted tub in which components were falling off but we figured it out and enjoyed the tub. The outdoor pool is clean and relaxing and would be the main interest of this property, as otherwise it is a roadside motor inn, with vagabonds and old rusting vending machines scattered throughout the property. This property is clearly not owned by someone that is passionate about while traveling, this property is all about the money, honey!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r271669901-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>271669901</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Affordable and clean</t>
+  </si>
+  <si>
+    <t>This is an older establishment, but is quite clean and well-maintained. Check in was quick, and the clerk offered bottled water and a choice of snacks. Wi-Fi was good, the room was spacious. Breakfast items were available, with omelets to pop in the microwave, yogurt, cereal, and pastries. The pool was beautifully landscaped, but apparently is undergoing repair, as it was empty. It was quiet, and I got a good night's sleep. I would stay here again.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r268766030-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>268766030</t>
+  </si>
+  <si>
+    <t>04/28/2015</t>
+  </si>
+  <si>
+    <t>This Ain't no BULL</t>
+  </si>
+  <si>
+    <t>I was pulling a cattle trailer and needed a place to stay.  got off Beltline and went right to this one.  Easy to find, good staff and parking.  clean rooms and a place to eat that is nice with in walking distance.  A bank and Walmart next door.  To good to be true.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r266743521-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>266743521</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Best Western Pearland</t>
+  </si>
+  <si>
+    <t>Best place to stay in Pearland.  Manager and all staff has always been friendly and accommodating.  Good location next to Walmart if I forget anything. Eating places close and freeways. Nice pool and hot tub.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r256401625-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>256401625</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Clean hotel but older</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room entry from outside. Not much parking. Clean Rooms. But towels dingy, and has soap and shampoo dispensers in the shower. Staff friendly and accomadating. Hard to book a nonsmoking room though. Other hotels in the area for the same price with better accomadations.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r255695341-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>255695341</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>1st time taveling with a Pet-Great Experience</t>
+  </si>
+  <si>
+    <t>We just rescued a dog 5 months ago.  Haven't been a pet owner for years.  Decided to drive from Florida to Arizona.  We stayed here and everything was perfect!  Room was excellent.  No order, spotless!  Everyone from front desk to cleaning staff were friendly and helpful.  Only one suggestion, more "hot" items on the breakfast buffet.  We will be stopping here on our way back home to Florida.  I couldn't have asked for a better experience with our beloved pet.  Thank you!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r255157234-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>255157234</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>The hotel is located out of public transportation facilities. Minimal cab price is 22-25 dollars. Practicaly that means the guest should on the room rate add cca 50 dollars. Then the hotel is not competitive any more.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r243971066-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>243971066</t>
+  </si>
+  <si>
+    <t>12/10/2014</t>
+  </si>
+  <si>
+    <t>Top Notch</t>
+  </si>
+  <si>
+    <t>Everyone at the hotel goes out of their way to make my stays enjoyable.  When I cancel for some reason, Liz at the front desk calls me to make sure it isn't a mistake and I won't be coming by expecting a room.  Very thoughtful.  I've stayed at this Best Western 2-3 nights per week for about 13 months.  The staff, management and owner work hard to make sure the facility and services are the best they can be.  Since first arriving, the air conditioners and  door locks have been replaced - previous ac and lock worked fine but they were upgraded.  The owner frequently feeds the guests. My room has been painted and the floors/rugs steam cleaned.  The WiFi is much better/stronger than anywhere else I've stayed.  The exterior pool, landscaping, parking areas are all maintained daily.  The ice machine was replaced a few months ago and the guests washer/dryer are modern and in good repair.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Everyone at the hotel goes out of their way to make my stays enjoyable.  When I cancel for some reason, Liz at the front desk calls me to make sure it isn't a mistake and I won't be coming by expecting a room.  Very thoughtful.  I've stayed at this Best Western 2-3 nights per week for about 13 months.  The staff, management and owner work hard to make sure the facility and services are the best they can be.  Since first arriving, the air conditioners and  door locks have been replaced - previous ac and lock worked fine but they were upgraded.  The owner frequently feeds the guests. My room has been painted and the floors/rugs steam cleaned.  The WiFi is much better/stronger than anywhere else I've stayed.  The exterior pool, landscaping, parking areas are all maintained daily.  The ice machine was replaced a few months ago and the guests washer/dryer are modern and in good repair.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r230041878-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>230041878</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>Considerate Staff!</t>
+  </si>
+  <si>
+    <t>My work requires me to be away from home 1/2 the year. Of all the I've places I've stayed, Best Western Pearland is the best.  The owner and staff are so personable and helpful.  They truly make it feel like my home-away-from-home!  You're not just "another" guest here and they treat everyone that comes through the same way.  The Super Walmart in the parking lot next door makes it very easy, also.  Great place to stay in the Houston area.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r225389534-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>225389534</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>The best for less!</t>
+  </si>
+  <si>
+    <t>Facility is about 20 years old, but the owner is on the premises all the time and does anything to make sure his guests are satisfied.  All the amenities are kept in excellent working order and the staff is very friendly.  Why pay more for other hotel stays when this Best Western is less expensive but no less comfortable..</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r217639944-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>217639944</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Very dirty</t>
+  </si>
+  <si>
+    <t>I booked online, because I have stayed with Best Western in the past and have always been satisfied.  The hotel looked nice and had decent reviews.  Unfortunately when we got to our room, the carpet looked unclean.  I didn't realize how dirty it was, when my husband kneeled on carpet to get into suitcase ( no luggage table) the knees of his pants were black.  The carpet was sticky in places and stiff.  The manager did provide detergent for washing slacks, but we were not offered a different room or discount and I would have switched hotels but there were no other vacancies in town.  So beware if staying here, this is not a clean place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I booked online, because I have stayed with Best Western in the past and have always been satisfied.  The hotel looked nice and had decent reviews.  Unfortunately when we got to our room, the carpet looked unclean.  I didn't realize how dirty it was, when my husband kneeled on carpet to get into suitcase ( no luggage table) the knees of his pants were black.  The carpet was sticky in places and stiff.  The manager did provide detergent for washing slacks, but we were not offered a different room or discount and I would have switched hotels but there were no other vacancies in town.  So beware if staying here, this is not a clean place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r205536385-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>205536385</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Not the "Best" Western I am used to</t>
+  </si>
+  <si>
+    <t>Room was a little high in price for the age and quality of the hotel and breakfast.  Room air freshener was excessive and highly offensive.  Otherwise, staff was excellent and overall stay was good.  I will always come to this hotel when in this area..primarily because of staff and overall appearance of hotel grounds and rooms.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r205020124-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>205020124</t>
+  </si>
+  <si>
+    <t>05/10/2014</t>
+  </si>
+  <si>
+    <t>I would stay here again</t>
+  </si>
+  <si>
+    <t>The rooms are clean.  The check-in is especially friendly; they offer a complimentary treat (e.g. granola bar) or soft drink/bottled water..  The price is a little higher than I would expect in a suburban location, but everything went well with the stay</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r201631592-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>201631592</t>
+  </si>
+  <si>
+    <t>04/15/2014</t>
+  </si>
+  <si>
+    <t>Service and cleaninless was very important when we were at this stay at Best Western.  The stay was comfortable .  I would Recomend other travelers to Best Western .  The price to stay was very reasonable .  We checked in around midnite and was very tired and the young lady was very polite and welcome us.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r198993461-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>198993461</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>no sleep</t>
+  </si>
+  <si>
+    <t>trains and trucks all night.. Internet did not work. lobby was lovely, lighting on outdoor stairs poor.  I will go to a different hotel in a different part of Houston when I travel again.  I don't know what else to say.  Walmart next door.  didn't feel safe in the parking lot.....and I travel a lot.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r191967461-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>191967461</t>
+  </si>
+  <si>
+    <t>01/24/2014</t>
+  </si>
+  <si>
+    <t>Noise was the Issue</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the staff friendly but that does not make up for the train that making its presence known every hour.  It was impossible to get a good night sleep.  I was very tired throughout the day due to lack of sleep. Its unfortunate since overall the hotel was great, clean and the staff was very helpful - and it was located next to a Walmart but the train tracks behind the hotel are definitely enough not to ever go back to it.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r179984995-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>179984995</t>
+  </si>
+  <si>
+    <t>10/06/2013</t>
+  </si>
+  <si>
+    <t>I really like this place</t>
+  </si>
+  <si>
+    <t>They are clean and well organized I like the idea they use ceramic tile in the bathroom and sink area flat screen TV refrigerator and microwave I think the bed is very comfortable the room itself is fairly big pool area really nice palm trees around the pool area Walmart is right next door if you have a trailer or just the truck and Walmart is real good about you parking there has 24 hours surveillance in the parking lot with the guard at Walmart my truck has been there for 3 days no problem this seems to be a safe area convenient to downtown Houston Church's Chicken is right next door and food restaurant next door m and I would definitely stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>They are clean and well organized I like the idea they use ceramic tile in the bathroom and sink area flat screen TV refrigerator and microwave I think the bed is very comfortable the room itself is fairly big pool area really nice palm trees around the pool area Walmart is right next door if you have a trailer or just the truck and Walmart is real good about you parking there has 24 hours surveillance in the parking lot with the guard at Walmart my truck has been there for 3 days no problem this seems to be a safe area convenient to downtown Houston Church's Chicken is right next door and food restaurant next door m and I would definitely stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r178905882-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>178905882</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>OK for very early risers</t>
+  </si>
+  <si>
+    <t>Nice room but street in front is all torn up.  Mostly truckers, parking lot full of pickups and trucks.  They get up as early as 5:30 a.m. and start their trucks and let them run 15-20 minutes, leave, and another truck starts, same thing.  I was a little concerned about all that carbon monoxide in the air but we did fine.  Breakfast area has no place to sit.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r171561153-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>171561153</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>We would return to this hotel.</t>
+  </si>
+  <si>
+    <t>Although this hotel was not a high end experience by any means, it wasn't supposed to be.  The staff was extremely courteous, helpful, and went out of their way to make our stay comfortable.  The pool area is small but very clean and nice.  The continental breakfast was fine and the room was clean.  For the value alone, it was worth the stay for us.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r167736556-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>167736556</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Nice Room</t>
+  </si>
+  <si>
+    <t>Great King Size bed and very comfortable and quiet room, even had a great shower head with great pressure, although the bathroom is kind of small.  Breakfast could use a few more choices, i.e. bacon and eggs.  Nice sized TV.  Quiet location although we did hear the train horn once but it wasn't too bad.  Friendly courtesy staff even tried to give me a military discount thinking I was part of that group.  Watch out for the road construction ion front of the hotel, can make getting out interesting.  Could use an ice machine on 2d floor, only because my knees are shot.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r167364509-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>167364509</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>Poor Customer Service</t>
+  </si>
+  <si>
+    <t>Bad experience upon check in.  Lost reservation even with printed copy of email.  Room was hot and smelled like old carpet.  NO Soap.  TV Did not work We Called the front desk and did not receive good customer service.   We will not stay at this motel again.   It was an older property that lacked good customer service.  Property was maintained ok just needed better customer service</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r166558237-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>166558237</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>July 4th stay.</t>
+  </si>
+  <si>
+    <t>Stayed here on Independence Day on my way to Houston. Had rewards to use so i stayed here. I checked in just after 12:30pm that day, thats what my reservation said, at check-in they told me it was 2pm. I was still allowed to check in anyways. The room i had, came with a king size bed,fridge,microwave, and a generous 45" TV. Bed was very comfortable, A/C was noisy at times and when it was on, you had to turn up the TV or radio, the room also had a ceiling fan, which is good cause it circulates the air in the room a lot better. I don t know who their landscaper is but i give them a big thumbs up, for the work around the pool. That area had a nioce tropical theme going, in addition to a great pool had a nice hot tub as well, which the hot tub needed more water. I would have given this place a five, but that night by the pool was some guys barbecuing and drinking, and having too good a time. Management needs in the future to not allow this sort of thing as it is a liability,an accident waiting to happen, and not good for a family type hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here on Independence Day on my way to Houston. Had rewards to use so i stayed here. I checked in just after 12:30pm that day, thats what my reservation said, at check-in they told me it was 2pm. I was still allowed to check in anyways. The room i had, came with a king size bed,fridge,microwave, and a generous 45" TV. Bed was very comfortable, A/C was noisy at times and when it was on, you had to turn up the TV or radio, the room also had a ceiling fan, which is good cause it circulates the air in the room a lot better. I don t know who their landscaper is but i give them a big thumbs up, for the work around the pool. That area had a nioce tropical theme going, in addition to a great pool had a nice hot tub as well, which the hot tub needed more water. I would have given this place a five, but that night by the pool was some guys barbecuing and drinking, and having too good a time. Management needs in the future to not allow this sort of thing as it is a liability,an accident waiting to happen, and not good for a family type hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r157437040-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>157437040</t>
+  </si>
+  <si>
+    <t>04/11/2013</t>
+  </si>
+  <si>
+    <t>Nice Pool Area</t>
+  </si>
+  <si>
+    <t>My family spent an afternoon at this hotel prior to flying home through Hobby Airport.  Hobby Airport is a 10 minute $20 cab ride.  This place is right next to a walmart and a few restaurants.  I can't say anyting else about the area.  The room was very clean and the pool area was beautiful.  There was a heating issue with the hottub at the pool but it was early spring and hopefully they will resolve that soon.  The lobby staff were very accomodating.  They also had a computer in the lobby for printing boarding passes and arranged a cab for pickup with no problems.  We checked in very early in the day and had to get up at 3:00 am for a very early flight so I didn't see the breakfast.  The room was very clean and I would stay here again if I needed to.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>My family spent an afternoon at this hotel prior to flying home through Hobby Airport.  Hobby Airport is a 10 minute $20 cab ride.  This place is right next to a walmart and a few restaurants.  I can't say anyting else about the area.  The room was very clean and the pool area was beautiful.  There was a heating issue with the hottub at the pool but it was early spring and hopefully they will resolve that soon.  The lobby staff were very accomodating.  They also had a computer in the lobby for printing boarding passes and arranged a cab for pickup with no problems.  We checked in very early in the day and had to get up at 3:00 am for a very early flight so I didn't see the breakfast.  The room was very clean and I would stay here again if I needed to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r157097287-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>157097287</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Should have picked differently</t>
+  </si>
+  <si>
+    <t>While the rooms were nice and clean, I wish I could say the Service was great, but it was not.  We booked ahead of time for 2 King rooms, and upon arrival, did not get the rooms we booked.  To top it off, management did nothing to try to correct the situation at all.  After our return, we complained to Best Western who, because we stayed in 1 room would not take the complaint because our traveling companion received the wrong room, even though the reservation was in our name and paid for by us.  The continental breakfast was barely anything, too.  Not that we expected much, but we have stayed at other Best Westerns and had other continental breakfasts that looked like a buffet comparatively.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>While the rooms were nice and clean, I wish I could say the Service was great, but it was not.  We booked ahead of time for 2 King rooms, and upon arrival, did not get the rooms we booked.  To top it off, management did nothing to try to correct the situation at all.  After our return, we complained to Best Western who, because we stayed in 1 room would not take the complaint because our traveling companion received the wrong room, even though the reservation was in our name and paid for by us.  The continental breakfast was barely anything, too.  Not that we expected much, but we have stayed at other Best Westerns and had other continental breakfasts that looked like a buffet comparatively.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r155797663-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>155797663</t>
+  </si>
+  <si>
+    <t>03/27/2013</t>
+  </si>
+  <si>
+    <t>satisfied with hotel</t>
+  </si>
+  <si>
+    <t>This hotel was in a great location, easy to find, easy access to different stores/fast food restaurants.  There was a Walmart right next door to the hotel which made it very convenient.  Checking in took a little while, but it wasn't a problem.  Hotel staff were very nice, professional.  There was one slight little problem with the AC, when turning AC on it had a slight odor to it.  The maintenance and housekeeping staff were very QUICK to respond, offering to remove the AC, offering Lysol spray, etc.  We were very greateful for their quick response and just agreed that we would allow AC to continue running.  Rooms were very clean!!!  The gazebo/swimming pool area was a great place to hang out with other family members, as we did the both nights were were at hotel.  We will definitely be returning to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was in a great location, easy to find, easy access to different stores/fast food restaurants.  There was a Walmart right next door to the hotel which made it very convenient.  Checking in took a little while, but it wasn't a problem.  Hotel staff were very nice, professional.  There was one slight little problem with the AC, when turning AC on it had a slight odor to it.  The maintenance and housekeeping staff were very QUICK to respond, offering to remove the AC, offering Lysol spray, etc.  We were very greateful for their quick response and just agreed that we would allow AC to continue running.  Rooms were very clean!!!  The gazebo/swimming pool area was a great place to hang out with other family members, as we did the both nights were were at hotel.  We will definitely be returning to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r153478664-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>153478664</t>
+  </si>
+  <si>
+    <t>03/01/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r149989313-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>149989313</t>
+  </si>
+  <si>
+    <t>01/18/2013</t>
+  </si>
+  <si>
+    <t>visiting relatives in Pearland</t>
+  </si>
+  <si>
+    <t>With close relatives in Pearland, we have tried many hotels in the Pearland area but always fall back to the trusted Best Western.   The location is great--right on North Main Street.  The cost is always reasonable and the hotel is always well maintained inside and out.  The reception at the front desk is always very pleasant.   Some fast food is nearby as well as  a local Walmart.   Security is the best with a very well lighted parking area.   Plus, we are able to pack in our dog for our stay.</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r147273574-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>147273574</t>
+  </si>
+  <si>
+    <t>12/11/2012</t>
+  </si>
+  <si>
+    <t>Good standard - clean, fresh, orderly</t>
+  </si>
+  <si>
+    <t>Good Best Western standard. Hotel was clean and orderly - looks like after reconstruction. Many restaurants/fast foods/supermarkets are nearby. 20 minutes to Baybrook Mall / NASA Johnson Space center. Everything was OK. Just one negative point - poor breakfast selections to choose from (compare to other Best Western hotels) - but, you can get good breakfast in any of the fastfood in the nearby...In summary: good choice</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r115679957-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>115679957</t>
+  </si>
+  <si>
+    <t>07/23/2011</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Rooms are "OK". the pool is great. close by shopping. close to Houston hobby. If you schedule a wake up call, I suggest you set your own alarm. You probably won't get the call.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r115024683-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>115024683</t>
+  </si>
+  <si>
+    <t>07/04/2011</t>
+  </si>
+  <si>
+    <t>Poor Quality for Price Paid</t>
+  </si>
+  <si>
+    <t>For the rates charged by this establishment there was no bang for the buck. Certainly the property is in some need of renovations despite the fact that on the web it boast renovations done in 2010. Yeah only thing renovated was the lobby. Breakfast was poor. The room was not ready on check in. Certainly not worth the $92 paid for the room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r105345820-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>105345820</t>
+  </si>
+  <si>
+    <t>04/24/2011</t>
+  </si>
+  <si>
+    <t>ok if you like freight train horns</t>
+  </si>
+  <si>
+    <t>not a bad 2 star hotel but not in a good area. Not attarctive. mainly light industrial, and lots of freight trains with their consistant horns all through the night due to lots of nearby level crossings. Handy Wal_mart next store. Maybe it would be quieter in there!</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r52614342-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>52614342</t>
+  </si>
+  <si>
+    <t>01/04/2010</t>
+  </si>
+  <si>
+    <t>Perfect Place to Stay in the Area</t>
+  </si>
+  <si>
+    <t>I stayed here (with much of my family in adjacent rooms) over the Thanksgiving Holidays.  I love going to my grandparents house, but since it was cold outside, I had a hard time leaving the jacuzzi in my room.  None of us had any problems with check-in or check-out, and all the rooms were extremely clean.  The breakfast was awesome because there were so many choices, and we all got what we wanted. Also, we all asked for wake-up calls (since we did not want to be banging on the door of sleepy family at 8 in the morning) and the staff pleasantly set it all up for us.  Thanksgiving went off without a hitch and we will be planning the same thing next year.  I highly recommend this hotel to any family.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>I stayed here (with much of my family in adjacent rooms) over the Thanksgiving Holidays.  I love going to my grandparents house, but since it was cold outside, I had a hard time leaving the jacuzzi in my room.  None of us had any problems with check-in or check-out, and all the rooms were extremely clean.  The breakfast was awesome because there were so many choices, and we all got what we wanted. Also, we all asked for wake-up calls (since we did not want to be banging on the door of sleepy family at 8 in the morning) and the staff pleasantly set it all up for us.  Thanksgiving went off without a hitch and we will be planning the same thing next year.  I highly recommend this hotel to any family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r32392879-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>32392879</t>
+  </si>
+  <si>
+    <t>06/15/2009</t>
+  </si>
+  <si>
+    <t>Doesn't disappoint</t>
+  </si>
+  <si>
+    <t>We stayed here back in 2005 and thought that it was nice for the price so we decided to book it for another stay. It is a little bit out of the way, which is nice because then we did not get caught in traffic as much as we expected to. The room is always nice and clean. Room service came a bit early but we didn't need it so we didn't mind just asking for new towels, which they didn't hesitate to replace right then. The air condition was pretty loud but that was the only thing that bothered us. We did not try the breakfast but they had a microwave and mini fridge so that came in handy.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>We stayed here back in 2005 and thought that it was nice for the price so we decided to book it for another stay. It is a little bit out of the way, which is nice because then we did not get caught in traffic as much as we expected to. The room is always nice and clean. Room service came a bit early but we didn't need it so we didn't mind just asking for new towels, which they didn't hesitate to replace right then. The air condition was pretty loud but that was the only thing that bothered us. We did not try the breakfast but they had a microwave and mini fridge so that came in handy.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1654,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1686,4141 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" t="s">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>101</v>
+      </c>
+      <c r="O10" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>127</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>156</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>109</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>109</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>177</v>
+      </c>
+      <c r="L23" t="s">
+        <v>178</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>179</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>183</v>
+      </c>
+      <c r="L24" t="s">
+        <v>184</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" t="s">
+        <v>102</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J25" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>185</v>
+      </c>
+      <c r="O25" t="s">
+        <v>109</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>192</v>
+      </c>
+      <c r="J26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K26" t="s">
+        <v>194</v>
+      </c>
+      <c r="L26" t="s">
+        <v>195</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>196</v>
+      </c>
+      <c r="O26" t="s">
+        <v>109</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>196</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>214</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" t="s">
+        <v>217</v>
+      </c>
+      <c r="K30" t="s">
+        <v>218</v>
+      </c>
+      <c r="L30" t="s">
+        <v>219</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>214</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>221</v>
+      </c>
+      <c r="J31" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>225</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>228</v>
+      </c>
+      <c r="J32" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" t="s">
+        <v>230</v>
+      </c>
+      <c r="L32" t="s">
+        <v>231</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>232</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>233</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>234</v>
+      </c>
+      <c r="J33" t="s">
+        <v>235</v>
+      </c>
+      <c r="K33" t="s">
+        <v>236</v>
+      </c>
+      <c r="L33" t="s">
+        <v>237</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>238</v>
+      </c>
+      <c r="O33" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>239</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>240</v>
+      </c>
+      <c r="J34" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" t="s">
+        <v>242</v>
+      </c>
+      <c r="L34" t="s">
+        <v>243</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>238</v>
+      </c>
+      <c r="O34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>245</v>
+      </c>
+      <c r="J35" t="s">
+        <v>246</v>
+      </c>
+      <c r="K35" t="s">
+        <v>247</v>
+      </c>
+      <c r="L35" t="s">
+        <v>248</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>250</v>
+      </c>
+      <c r="J36" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" t="s">
+        <v>252</v>
+      </c>
+      <c r="L36" t="s">
+        <v>253</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>254</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>256</v>
+      </c>
+      <c r="J37" t="s">
+        <v>257</v>
+      </c>
+      <c r="K37" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" t="s">
+        <v>258</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>254</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>260</v>
+      </c>
+      <c r="J38" t="s">
+        <v>261</v>
+      </c>
+      <c r="K38" t="s">
+        <v>262</v>
+      </c>
+      <c r="L38" t="s">
+        <v>263</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>264</v>
+      </c>
+      <c r="O38" t="s">
+        <v>102</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>266</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>267</v>
+      </c>
+      <c r="J39" t="s">
+        <v>268</v>
+      </c>
+      <c r="K39" t="s">
+        <v>269</v>
+      </c>
+      <c r="L39" t="s">
+        <v>270</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>271</v>
+      </c>
+      <c r="O39" t="s">
+        <v>102</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>273</v>
+      </c>
+      <c r="J40" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" t="s">
+        <v>275</v>
+      </c>
+      <c r="L40" t="s">
+        <v>276</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>277</v>
+      </c>
+      <c r="O40" t="s">
+        <v>102</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>278</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>279</v>
+      </c>
+      <c r="J41" t="s">
+        <v>280</v>
+      </c>
+      <c r="K41" t="s">
+        <v>281</v>
+      </c>
+      <c r="L41" t="s">
+        <v>282</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>283</v>
+      </c>
+      <c r="O41" t="s">
+        <v>109</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>286</v>
+      </c>
+      <c r="J42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K42" t="s">
+        <v>288</v>
+      </c>
+      <c r="L42" t="s">
+        <v>289</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>290</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>291</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>292</v>
+      </c>
+      <c r="J43" t="s">
+        <v>293</v>
+      </c>
+      <c r="K43" t="s">
+        <v>294</v>
+      </c>
+      <c r="L43" t="s">
+        <v>295</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>290</v>
+      </c>
+      <c r="O43" t="s">
+        <v>102</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>297</v>
+      </c>
+      <c r="J44" t="s">
+        <v>298</v>
+      </c>
+      <c r="K44" t="s">
+        <v>39</v>
+      </c>
+      <c r="L44" t="s">
+        <v>299</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>300</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>301</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>302</v>
+      </c>
+      <c r="J45" t="s">
+        <v>303</v>
+      </c>
+      <c r="K45" t="s">
+        <v>304</v>
+      </c>
+      <c r="L45" t="s">
+        <v>305</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s">
+        <v>300</v>
+      </c>
+      <c r="O45" t="s">
+        <v>102</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>307</v>
+      </c>
+      <c r="J46" t="s">
+        <v>308</v>
+      </c>
+      <c r="K46" t="s">
+        <v>309</v>
+      </c>
+      <c r="L46" t="s">
+        <v>310</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>311</v>
+      </c>
+      <c r="O46" t="s">
+        <v>102</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>312</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>313</v>
+      </c>
+      <c r="J47" t="s">
+        <v>314</v>
+      </c>
+      <c r="K47" t="s">
+        <v>315</v>
+      </c>
+      <c r="L47" t="s">
+        <v>316</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>317</v>
+      </c>
+      <c r="O47" t="s">
+        <v>102</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>319</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>320</v>
+      </c>
+      <c r="J48" t="s">
+        <v>321</v>
+      </c>
+      <c r="K48" t="s">
+        <v>322</v>
+      </c>
+      <c r="L48" t="s">
+        <v>323</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>324</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>325</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>326</v>
+      </c>
+      <c r="J49" t="s">
+        <v>327</v>
+      </c>
+      <c r="K49" t="s">
+        <v>328</v>
+      </c>
+      <c r="L49" t="s">
+        <v>329</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>330</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>331</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>332</v>
+      </c>
+      <c r="J50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K50" t="s">
+        <v>334</v>
+      </c>
+      <c r="L50" t="s">
+        <v>335</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>336</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>337</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>338</v>
+      </c>
+      <c r="J51" t="s">
+        <v>339</v>
+      </c>
+      <c r="K51" t="s">
+        <v>340</v>
+      </c>
+      <c r="L51" t="s">
+        <v>341</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>336</v>
+      </c>
+      <c r="O51" t="s">
+        <v>102</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>342</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>343</v>
+      </c>
+      <c r="J52" t="s">
+        <v>344</v>
+      </c>
+      <c r="K52" t="s">
+        <v>345</v>
+      </c>
+      <c r="L52" t="s">
+        <v>346</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>336</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>348</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>349</v>
+      </c>
+      <c r="J53" t="s">
+        <v>350</v>
+      </c>
+      <c r="K53" t="s">
+        <v>351</v>
+      </c>
+      <c r="L53" t="s">
+        <v>352</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>353</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>355</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>356</v>
+      </c>
+      <c r="J54" t="s">
+        <v>357</v>
+      </c>
+      <c r="K54" t="s">
+        <v>358</v>
+      </c>
+      <c r="L54" t="s">
+        <v>359</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>360</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>362</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>363</v>
+      </c>
+      <c r="J55" t="s">
+        <v>364</v>
+      </c>
+      <c r="K55" t="s">
+        <v>365</v>
+      </c>
+      <c r="L55" t="s">
+        <v>366</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>360</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>368</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>369</v>
+      </c>
+      <c r="J56" t="s">
+        <v>370</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>371</v>
+      </c>
+      <c r="O56" t="s">
+        <v>109</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>372</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>373</v>
+      </c>
+      <c r="J57" t="s">
+        <v>374</v>
+      </c>
+      <c r="K57" t="s">
+        <v>375</v>
+      </c>
+      <c r="L57" t="s">
+        <v>376</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>377</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>378</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>379</v>
+      </c>
+      <c r="J58" t="s">
+        <v>380</v>
+      </c>
+      <c r="K58" t="s">
+        <v>381</v>
+      </c>
+      <c r="L58" t="s">
+        <v>382</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>383</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>384</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>385</v>
+      </c>
+      <c r="J59" t="s">
+        <v>386</v>
+      </c>
+      <c r="K59" t="s">
+        <v>387</v>
+      </c>
+      <c r="L59" t="s">
+        <v>388</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>389</v>
+      </c>
+      <c r="O59" t="s">
+        <v>102</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>390</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>391</v>
+      </c>
+      <c r="J60" t="s">
+        <v>392</v>
+      </c>
+      <c r="K60" t="s">
+        <v>393</v>
+      </c>
+      <c r="L60" t="s">
+        <v>394</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>389</v>
+      </c>
+      <c r="O60" t="s">
+        <v>102</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>395</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>396</v>
+      </c>
+      <c r="J61" t="s">
+        <v>397</v>
+      </c>
+      <c r="K61" t="s">
+        <v>398</v>
+      </c>
+      <c r="L61" t="s">
+        <v>399</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>400</v>
+      </c>
+      <c r="O61" t="s">
+        <v>156</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>401</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>402</v>
+      </c>
+      <c r="J62" t="s">
+        <v>403</v>
+      </c>
+      <c r="K62" t="s">
+        <v>404</v>
+      </c>
+      <c r="L62" t="s">
+        <v>405</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>406</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>408</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>409</v>
+      </c>
+      <c r="J63" t="s">
+        <v>410</v>
+      </c>
+      <c r="K63" t="s">
+        <v>411</v>
+      </c>
+      <c r="L63" t="s">
+        <v>412</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>413</v>
+      </c>
+      <c r="O63" t="s">
+        <v>109</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_36.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_36.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="642">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r551597916-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>56432</t>
+  </si>
+  <si>
+    <t>73283</t>
+  </si>
+  <si>
+    <t>551597916</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Low budget hotel</t>
+  </si>
+  <si>
+    <t>The Staff was helpful with printing Items. There were long term families staying there. The room were outdate.  It is next to Walmart and some Restaurants. The parking lot gets full in the evening.  A little noisy.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r549232322-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>549232322</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>amazing stay</t>
+  </si>
+  <si>
+    <t>Having to stay here for four months because of hurricane Harvey, this had been the best hotel I have ever stayed at. Best customer service I ever received. They made things less stressful for me and my new born baby. I am very grateful and blessed for such great hearts these staff had.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r543502124-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
-    <t>56432</t>
-  </si>
-  <si>
-    <t>73283</t>
-  </si>
-  <si>
     <t>543502124</t>
   </si>
   <si>
@@ -177,9 +216,6 @@
     <t>November 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r538646221-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -216,6 +252,45 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r507503207-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>507503207</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Unexpectadely Awesome!</t>
+  </si>
+  <si>
+    <t>We wanted to let the little ones experience a hotel stay so we decided to stay in town and were very glad we did. The hotel is nicer then we imagined it being; but the pool!!! We were thrilled to see it is as nice as the pictures! The only thing we noticed different was the jacuzzi is now filled in. That was not an issue though because the pool is nice enough without it. There is a large gazebo and a table with an umbrella and chairs as well as lounge chairs. The rooms were as the pictures showed as well and nice and clean. We got to choose what room we wanted basically at check in and the kids thought that was cool! Everything worked fine. It was very pleasant and quiet the whole time. Walmart is within walking distance so that was pretty convenient. There's also a Church's Chicken drive thru  in the same parking lot as well as a Mexican food restaurant. We would definitely stay here again it was worth the price!! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We wanted to let the little ones experience a hotel stay so we decided to stay in town and were very glad we did. The hotel is nicer then we imagined it being; but the pool!!! We were thrilled to see it is as nice as the pictures! The only thing we noticed different was the jacuzzi is now filled in. That was not an issue though because the pool is nice enough without it. There is a large gazebo and a table with an umbrella and chairs as well as lounge chairs. The rooms were as the pictures showed as well and nice and clean. We got to choose what room we wanted basically at check in and the kids thought that was cool! Everything worked fine. It was very pleasant and quiet the whole time. Walmart is within walking distance so that was pretty convenient. There's also a Church's Chicken drive thru  in the same parking lot as well as a Mexican food restaurant. We would definitely stay here again it was worth the price!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r500597394-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>500597394</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>Very nice hotel in Pearland.  Pet-friendly which was a must for us on this trip.  Very nice pool area.  Very friendly and helpful front desk staff.  Very short walk to Walmart and a great little Mexican restaurant that is open late.  Close to many things we were interested in.  One of the best hotel experiences that I have had lately.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r494731672-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -270,6 +345,39 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r477619232-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>477619232</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Fairly Priced Good Clean Accommodations</t>
+  </si>
+  <si>
+    <t>Overall the Best Western Pearland Inn is fairly priced and a good clean place to stay.  The staff are reasonably friendly, accommodating and as pleasant as anyone would expect from motel/hotel staff.  The property grounds are clean and well maintained with pleasant landscaping.  As a bonus, if you have forgotten anything you need, there is a Walmart super center just next door and well within walking distance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r476932386-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>476932386</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">By any standard a dump </t>
+  </si>
+  <si>
+    <t>I've stayed at a lot of Best Westerns and have always been satisfied. This one is a dump. Best Western would do well to let it go. I am mobility challenged and they put me upstairs as far as possible from the parking. The room had a 1 inch step up to enter. I was so stressed from the stairs that I tripped on it and fell flat of my face. It didn't help that the room was as dark as a tomb even after I turned the lights on. And it smells of mildew and cleaning fluids.Next time in this town it'll be Holiday Inn Express or Hampton Inn. MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed at a lot of Best Westerns and have always been satisfied. This one is a dump. Best Western would do well to let it go. I am mobility challenged and they put me upstairs as far as possible from the parking. The room had a 1 inch step up to enter. I was so stressed from the stairs that I tripped on it and fell flat of my face. It didn't help that the room was as dark as a tomb even after I turned the lights on. And it smells of mildew and cleaning fluids.Next time in this town it'll be Holiday Inn Express or Hampton Inn. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r475860206-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -324,7 +432,34 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r452033772-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>452033772</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Comfortable, clean, helpful staff</t>
+  </si>
+  <si>
+    <t>Comfortable and clean, with helpful staff.  Pool looked nice.  Wish I had stayed long enough to try it out.  My request for downstairs room was accommodated. I arrived late and left early, so I was extremely appreciative of how quiet the room was.  Arriving late at night, the hotel was a little difficult to see from the street.  The desk attendant was very helpful and stored my ice packs in the hotel freezer for me.  I would have preferred that the refrigerator in the room had a freezer compartment.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r451137266-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>451137266</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Too many questions</t>
+  </si>
+  <si>
+    <t>The motel/hotel is clean, friendly and the price is reasonable.  It is in a great location if you need to be in Pearland or South Houston.  Thank you Tricia for being so kind and helpful.  If I ever needed a hotel in Pearland again, I would definitely consider booking here.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r444888314-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
@@ -345,9 +480,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r435747970-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -384,6 +516,42 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r400601881-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>400601881</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Just right and pool is a little oasis</t>
+  </si>
+  <si>
+    <t>Stayed here for Junior Olympics and found it to be just what we needed. Clean and reasonably priced, with friendly staff. The small pool has plenty of seating and a lovely small waterfall. Enjoyed a peaceful hour there on Saturday afternoon. A/C unit under the window worked hard to keep us cool despite 95+ summertime temperature.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r399506858-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>399506858</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Excellent hotel in Old Pearland</t>
+  </si>
+  <si>
+    <t>On Tx hwy 35, not far south of loop 8. Very good location. Great staff, neat clean room, has every convenience( including ironing board closet. Comfy mattress and pillows.Small pool, but a great place for kids and grandma to keep cool.Continental breakfast has many options: yogurt, cereal, pancakes, juices, toaster and microwave for English muffins, toast, bagels and a selection of microwave sandwiches and tacos. Not skimpy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r399185255-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -399,9 +567,6 @@
     <t xml:space="preserve">Ok for overnight stop on way to Galveston but bed wasn't the greatest. If you like Hard beds, its the place to stop. Nice pool area. Clean overall. Front desk was friendly. Small breakfast area w fairly good selection. </t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r389970038-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -435,6 +600,39 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r381027175-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>381027175</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>everything we needed</t>
+  </si>
+  <si>
+    <t>It had everything for our family of four and our 7 pound dog. You cant beat it. It was very well kept with a nice pool and Breakfast. will stay again.  I would usually stay at the Super 8 which is nice and clean but no dogs. So i searched for dog friendly hotels and found this one for a good price. Signed up for rewards program will be staying there from now on.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r380460367-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>380460367</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Best Western Pearland</t>
+  </si>
+  <si>
+    <t>Stayed at Best Western in Pearland for grandson's graduation and celebration.  Always stay at this Pearland location.  Manager Manhar Das is ALWAYS the BEST!  All the staff Liz, Trisha and Penelope are Great from reservations to checkout.  Hotel has a pool with beautiful landscaping.   Rooms are great!  Beds are great.  Wifi and Continental Breakfast now with a waffle maker!! Will not stay anywhere else for the value but mainly the STAFF!! making you feel so GREAT!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r378891452-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -450,9 +648,6 @@
     <t>For the price...the best place just outside of town(south side) to stay.  Been staying here over 20 years.  Very good people and a very nice clean hotel.  Once you get to know the people there they will take great care of you.  Never consider staying elsewhere.</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r375998378-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -486,7 +681,37 @@
     <t>The room was clean. Bathroom had a large vanity area. Good shower head with good pressure. Lobby was well kept. Restaurants and shopping very close to hotel. Overall a clean, quiet stay and great price.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r373575565-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>373575565</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>overall a good stay</t>
+  </si>
+  <si>
+    <t>from check-in to check-out, with exception of breakfast, were great. being diabetic the breakfast did not fit our eating pattern so we ate offsite. for children and some adults they would be ok with the meal served</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r366125200-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>366125200</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>good experience</t>
+  </si>
+  <si>
+    <t>The room was kept very clean.  The staff really made you feel at home and went out of their way to accommodate me when I discovered I had accidentally booked a smoking room.  The pool area is relaxing atmosphere.  The fitness area needs much improvement but worked good enough.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r363795270-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
@@ -504,9 +729,6 @@
     <t>We have stayed at this Best Western for our Anniversary for the last 4 years.  Always an excellent Hotel and Staff.  Pool and Landscaping are really nice.  Only place we stay or consider when in Pearland.  Stay several more times during the year. I have never had a bad experience.  Enjoy everyone there.</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r355466237-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -540,6 +762,39 @@
     <t>This hotel was extremely clean and the bed was very comfortable. Our stay here was great. The check in was very easy and friendly. The location was great. My favorite was the cleanliness of the room. It smelled amazing and the bed was very clean. Could not ask for a better stay</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r353202743-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>353202743</t>
+  </si>
+  <si>
+    <t>03/05/2016</t>
+  </si>
+  <si>
+    <t>Super friendly staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had to check in late due to a conference all day. The man behind the counter was very nice, friendly, and helpful when we did finally check in.The hotel has been under going a remodel and you can tell by the upgrades in the rooms. The rooms were very clean and comfortable. The same man was at the breakfast the next morning and was doing a great job making sure every one was taken care of. I would definitely recommend this hotel if you're in the area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r350159229-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>350159229</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>great place to stay</t>
+  </si>
+  <si>
+    <t>We have used this property before and was very impressed ! The staff is awesome, the rooms are very nice, and the bed is fantastic !! It is a great value and very close to locations of interest . We will always stay here when in town !!</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r348615056-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -555,9 +810,6 @@
     <t>They have your tv remote in a sanitized envelope. I liked that! Clean and quiet when I stayed. Pool area is nice! Dog friendly..staff was real nice. I would stay there again! No frills but excellent choice when on a budget</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r334412443-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -591,6 +843,36 @@
     <t>We have found that Best Western, for the most part, is a very consistent motel chain.  The rooms are normally clean and this property in Pearland Texas is no different.  We would have preferred a full breakfast, however the continental breakfast was good and the coffee great.  I would recommend that the continental breakfast last a little longer.  It ends at 9:00AM so if you sleep in you may miss it.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r334411441-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>334411441</t>
+  </si>
+  <si>
+    <t>Excellent Best Western</t>
+  </si>
+  <si>
+    <t>This is a wonderful Best Western. The entire property is spic and span clean. Owner updates regularly. Very comfortable bed, which is usually my most important criteria. Room was Best Western average size with pleasing décor. Continental breakfast had everything we needed. The chocolate crepes are to die for. Beautiful pool area with waterfall where I enjoyed my morning coffee.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r329646361-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>329646361</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>NOISY</t>
+  </si>
+  <si>
+    <t>This hotel was noisy! People were outside all night yelling and beating on doors. The hotel staff did nothing about it. There was people in the pool area at midnight, staff did nothing. Probably won't stay here again.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r313195645-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -645,6 +927,36 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r298649011-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>298649011</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Not quite the Best Western I have come to expect</t>
+  </si>
+  <si>
+    <t>For the money per night spent, there was only a cold cereal breakfast.  I have come to expect a hot breakfast at BW and it was a disappointment upon entering the lobby.  Also a huge gap around the front door of my room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r297769672-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>297769672</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>unfriendly staff</t>
+  </si>
+  <si>
+    <t>We stayed a weekend at this best western ,They have baby opossom by the pool area ,we told the staff ,the were not concerned about it ,they dont say hello or thankyou when you check out. around the pool was noisey after hours .</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r293564281-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -699,6 +1011,39 @@
     <t>I know that a front desk person has access to my hotel history, and my Best Western history dates back to 1991. This front desk clerk asked for many forms of ID and did not want to give me the AAA discount because I forgot my card.  It was not much of a discount to begin with (1 king bed for 132.00 total) so I was a bit offended, as it was my son and I checking in early in the afternoon to wait for Daddy. I checked into my room finally and wow, It was small for that price, not even a couch. There was a small jetted tub in which components were falling off but we figured it out and enjoyed the tub. The outdoor pool is clean and relaxing and would be the main interest of this property, as otherwise it is a roadside motor inn, with vagabonds and old rusting vending machines scattered throughout the property. This property is clearly not owned by someone that is passionate about while traveling, this property is all about the money, honey!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r281283277-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>281283277</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Overall Experience</t>
+  </si>
+  <si>
+    <t>This "Best Western" Inn was, in the beginning, a simply mediocre but familiar place to stay temporarily away from home! We have stayed there in the same room at least three times in the past 5 years, and not had any problems!  I was never extremely impressed by the Inn but it is very close to family and the facilities we needed, primarily the South Park Funeral Home and Cemetery! Now, out of the blue, the manager says that we owe a fee for my wife smoking in their bathroom? HUH?   Did they ever charge the PREVIOUS STAYERS FOR SMOKIN IN THAT ROOM??? I believe they are getting desperate and trying to rip off people that really can not afford it! In particular, 100% Disabled Extremely Handicapped Amputeed Veterans!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>This "Best Western" Inn was, in the beginning, a simply mediocre but familiar place to stay temporarily away from home! We have stayed there in the same room at least three times in the past 5 years, and not had any problems!  I was never extremely impressed by the Inn but it is very close to family and the facilities we needed, primarily the South Park Funeral Home and Cemetery! Now, out of the blue, the manager says that we owe a fee for my wife smoking in their bathroom? HUH?   Did they ever charge the PREVIOUS STAYERS FOR SMOKIN IN THAT ROOM??? I believe they are getting desperate and trying to rip off people that really can not afford it! In particular, 100% Disabled Extremely Handicapped Amputeed Veterans!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r278906256-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>278906256</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay when Visiting Family</t>
+  </si>
+  <si>
+    <t>All we needed was a basic hotel room for one night so we could attend my niece's HS graduation party - Best Western Pearland delivered that and more!  The room was very comfortable, very clean and the staff were a joy to interact with.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r271669901-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -744,12 +1089,42 @@
     <t>04/19/2015</t>
   </si>
   <si>
-    <t>Best Western Pearland</t>
-  </si>
-  <si>
     <t>Best place to stay in Pearland.  Manager and all staff has always been friendly and accommodating.  Good location next to Walmart if I forget anything. Eating places close and freeways. Nice pool and hot tub.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r259351538-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>259351538</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>awesome stay</t>
+  </si>
+  <si>
+    <t>overall it was great, wish we would have stayed longer. the bed was so comfortable best sleep we have had in a long time, and the shower was awesome, it would have been great if it had been a longer trip so we could have used more of your facilities. next time we have to make sure weather is better so we can use the pool for sure.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r258326618-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>258326618</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Sleepless in Pearland</t>
+  </si>
+  <si>
+    <t>For the most part the hotel is a good value and the employees are very friendly and helpful.  The bed was terrible.  Also, small pillows are aggravating.  Get larger pillows for sleeping, small ones for decoration.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r256401625-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -795,6 +1170,39 @@
     <t>The hotel is located out of public transportation facilities. Minimal cab price is 22-25 dollars. Practicaly that means the guest should on the room rate add cca 50 dollars. Then the hotel is not competitive any more.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r246641844-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>246641844</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>I stayed in the Best Western over Christmas and was pleased with the accommodations. Nice business office. Rooms were roomy. Excellent help from the front desk staff. Friendly and helpful. When our room had excessive noise from the ceiling fan, front desk moved us easily. Used the fitness equipment. Room and equipment were new like and all I needed.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r244639259-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>244639259</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>A rock-solid property, well-maintained</t>
+  </si>
+  <si>
+    <t>Stayed before, but has been updated since my last stay.  Comfortable and clean with nice amenities.  Love the pillows!  Comfortable bed as well.  The Direct TV selection is very broad as well.  A highly recommended property with tremendous value associated with it!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r243971066-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -852,6 +1260,39 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r221249721-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>221249721</t>
+  </si>
+  <si>
+    <t>08/11/2014</t>
+  </si>
+  <si>
+    <t>weekend trip</t>
+  </si>
+  <si>
+    <t>Typical hotel room, clean but nothing special.  Pillows were lumpy. Had a nice frig and microwave........  Wal mart next door. Disappointed because the jacuzzi was not working. Might stay again. Not very many restaurants nearby other than McDonalds</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r219609505-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>219609505</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Stay Here</t>
+  </si>
+  <si>
+    <t>From the time you arrive at the location, you will receive nothing but service. Hotel staff is the best.  This hotel is clean (which is refreshing) .  You will get a good nights sleep here.  There is ample places to eat nearby and if your in to shopping you can just about go any direction from the hotel to get what you need.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r217639944-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -867,9 +1308,6 @@
     <t>I booked online, because I have stayed with Best Western in the past and have always been satisfied.  The hotel looked nice and had decent reviews.  Unfortunately when we got to our room, the carpet looked unclean.  I didn't realize how dirty it was, when my husband kneeled on carpet to get into suitcase ( no luggage table) the knees of his pants were black.  The carpet was sticky in places and stiff.  The manager did provide detergent for washing slacks, but we were not offered a different room or discount and I would have switched hotels but there were no other vacancies in town.  So beware if staying here, this is not a clean place to stay.MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>I booked online, because I have stayed with Best Western in the past and have always been satisfied.  The hotel looked nice and had decent reviews.  Unfortunately when we got to our room, the carpet looked unclean.  I didn't realize how dirty it was, when my husband kneeled on carpet to get into suitcase ( no luggage table) the knees of his pants were black.  The carpet was sticky in places and stiff.  The manager did provide detergent for washing slacks, but we were not offered a different room or discount and I would have switched hotels but there were no other vacancies in town.  So beware if staying here, this is not a clean place to stay.More</t>
   </si>
   <si>
@@ -906,6 +1344,39 @@
     <t>The rooms are clean.  The check-in is especially friendly; they offer a complimentary treat (e.g. granola bar) or soft drink/bottled water..  The price is a little higher than I would expect in a suburban location, but everything went well with the stay</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r203247493-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>203247493</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Getaway</t>
+  </si>
+  <si>
+    <t>I spent 2 nights in this great hotel. Had an upstairs room but they offered help getting my luggage up to my room and back down again. The staff was amazing and I had a very good experience. Traveling alone as a woman in a place I had never been could have made me uneasy, but I felt very safe even sitting in the hot tub after dark was not scary.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r202345141-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>202345141</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>great staff and stay.went for a funeral and needed that extra kindness and I got it .walmarts near by and a starbucks ,quiet nice pool.no bugs!!! clean carpet was clean bed was a little stiff but nothing to really complain about.I feel for the money I spent I wasnt ripped off and thats what counts!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r201631592-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1425,39 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r191553045-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>191553045</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>NICE AND CLEAN</t>
+  </si>
+  <si>
+    <t>Hotel was very clean and nice. The water was hot and the a/c was cold. The room smelt nice. The room was very large. I thought it was a bit pricey being a Best Western. It is close to shopping and eating. The pool here I do believe is one of the prettiest hotel pools I have seen. I thought everything about this place was great except for the price.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r189035240-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>189035240</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>Small town hotel with big charm</t>
+  </si>
+  <si>
+    <t>It was nice to get out of the daily hustle and bustle to enjoy a stay in a small town. There's the feeling of friendliness everywhere you go, especially in this hotel. Rooms are clean with made to order breakfast is a plus.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r179984995-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -969,9 +1473,6 @@
     <t>They are clean and well organized I like the idea they use ceramic tile in the bathroom and sink area flat screen TV refrigerator and microwave I think the bed is very comfortable the room itself is fairly big pool area really nice palm trees around the pool area Walmart is right next door if you have a trailer or just the truck and Walmart is real good about you parking there has 24 hours surveillance in the parking lot with the guard at Walmart my truck has been there for 3 days no problem this seems to be a safe area convenient to downtown Houston Church's Chicken is right next door and food restaurant next door m and I would definitely stay here againMoreShow less</t>
   </si>
   <si>
-    <t>October 2013</t>
-  </si>
-  <si>
     <t>They are clean and well organized I like the idea they use ceramic tile in the bathroom and sink area flat screen TV refrigerator and microwave I think the bed is very comfortable the room itself is fairly big pool area really nice palm trees around the pool area Walmart is right next door if you have a trailer or just the truck and Walmart is real good about you parking there has 24 hours surveillance in the parking lot with the guard at Walmart my truck has been there for 3 days no problem this seems to be a safe area convenient to downtown Houston Church's Chicken is right next door and food restaurant next door m and I would definitely stay here againMore</t>
   </si>
   <si>
@@ -1011,6 +1512,39 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r169152607-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>169152607</t>
+  </si>
+  <si>
+    <t>07/26/2013</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Very nice rooms for the rate and was exactly as explained on website. Was def surprised how nice pool was for a hotel and they even have a hot tub. Only negative would be that it was about 10 miles from all the restaurants but there is a couple of fast food restaurants near by. Also a Wal Mart right next door.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r169109529-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>169109529</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>The only thing that prevented an Excellent rating was the fan on the A/C unit.  It didn't blow as it should.  We set it to be on continuosly, but it barely ran.  You could tell it was on, but it wasn't blowing out the air very much.  The A/C unit was working and the room cooled but the fan did not blow very hard.  Otherwise it was a very nice stay and the room and property was very well maintained.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r167736556-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1026,9 +1560,6 @@
     <t>Great King Size bed and very comfortable and quiet room, even had a great shower head with great pressure, although the bathroom is kind of small.  Breakfast could use a few more choices, i.e. bacon and eggs.  Nice sized TV.  Quiet location although we did hear the train horn once but it wasn't too bad.  Friendly courtesy staff even tried to give me a military discount thinking I was part of that group.  Watch out for the road construction ion front of the hotel, can make getting out interesting.  Could use an ice machine on 2d floor, only because my knees are shot.</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r167364509-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1593,45 @@
     <t>Stayed here on Independence Day on my way to Houston. Had rewards to use so i stayed here. I checked in just after 12:30pm that day, thats what my reservation said, at check-in they told me it was 2pm. I was still allowed to check in anyways. The room i had, came with a king size bed,fridge,microwave, and a generous 45" TV. Bed was very comfortable, A/C was noisy at times and when it was on, you had to turn up the TV or radio, the room also had a ceiling fan, which is good cause it circulates the air in the room a lot better. I don t know who their landscaper is but i give them a big thumbs up, for the work around the pool. That area had a nioce tropical theme going, in addition to a great pool had a nice hot tub as well, which the hot tub needed more water. I would have given this place a five, but that night by the pool was some guys barbecuing and drinking, and having too good a time. Management needs in the future to not allow this sort of thing as it is a liability,an accident waiting to happen, and not good for a family type hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r162745608-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>162745608</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>Accused of stolen pillows due to incompetence of staff.</t>
+  </si>
+  <si>
+    <t>Checked into hotel on June 1st, asked receptionist at counter for directions but she seemed like she couldn't find air in the atmosphere. I would advise everyone to make sure you get an itemized list of whats in your hotel room. And to top it off they automatically charged my credit card without notifying me (but basically accusing me) of stealing pillows. There is literally a Walmart right next door that sells pillows for $4.89 (soft pillows). And the charge to my credit card was $30. Next time post in the room a itemized inventory list i.e. 4 pillows, 6 towels, 3 lamps etc. If we would of known there was 4 pillows we would of went back to the front desk and ask for the other 2 pillows. FYI credit card company was notified immediately of fraudulent charges, due to managers lack of professionalism. Unbelievable experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked into hotel on June 1st, asked receptionist at counter for directions but she seemed like she couldn't find air in the atmosphere. I would advise everyone to make sure you get an itemized list of whats in your hotel room. And to top it off they automatically charged my credit card without notifying me (but basically accusing me) of stealing pillows. There is literally a Walmart right next door that sells pillows for $4.89 (soft pillows). And the charge to my credit card was $30. Next time post in the room a itemized inventory list i.e. 4 pillows, 6 towels, 3 lamps etc. If we would of known there was 4 pillows we would of went back to the front desk and ask for the other 2 pillows. FYI credit card company was notified immediately of fraudulent charges, due to managers lack of professionalism. Unbelievable experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r160278080-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>160278080</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>Great Place near Hobby</t>
+  </si>
+  <si>
+    <t>I am not sure what was happening in Houston on May 8 but the hotels near the airport were all skyhigh in price.  I needed a place basically to stay with my college daughter before her flight to Africa the next morning.  We arrived at the Best Western late afternoon and were happy to find a very friendly , clean and safe place to stay for under $100.  Walmart practically in the parking lot was awesome for all the last minute stuff we needed to get also.  Not a whole lot to eat around but the receptionist was awesome and gave us lots of information ( we had to get passport pictures taken for her VISA after 7 at night!) to get all of our errands accomplished.  Breakfast was adeaquate.  Room was very clean and bathroom recently remodeled.  Getting to Hobby could not have been easier the next morning.  SO happy I didn't spend over $300 to be closer to the airport.  Only took 10 minutes straight shot to get there.  Also Telephone Blvd is Main Street.  Passed the exit before we figured this out.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I am not sure what was happening in Houston on May 8 but the hotels near the airport were all skyhigh in price.  I needed a place basically to stay with my college daughter before her flight to Africa the next morning.  We arrived at the Best Western late afternoon and were happy to find a very friendly , clean and safe place to stay for under $100.  Walmart practically in the parking lot was awesome for all the last minute stuff we needed to get also.  Not a whole lot to eat around but the receptionist was awesome and gave us lots of information ( we had to get passport pictures taken for her VISA after 7 at night!) to get all of our errands accomplished.  Breakfast was adeaquate.  Room was very clean and bathroom recently remodeled.  Getting to Hobby could not have been easier the next morning.  SO happy I didn't spend over $300 to be closer to the airport.  Only took 10 minutes straight shot to get there.  Also Telephone Blvd is Main Street.  Passed the exit before we figured this out.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r157437040-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1692,36 @@
     <t>This hotel was in a great location, easy to find, easy access to different stores/fast food restaurants.  There was a Walmart right next door to the hotel which made it very convenient.  Checking in took a little while, but it wasn't a problem.  Hotel staff were very nice, professional.  There was one slight little problem with the AC, when turning AC on it had a slight odor to it.  The maintenance and housekeeping staff were very QUICK to respond, offering to remove the AC, offering Lysol spray, etc.  We were very greateful for their quick response and just agreed that we would allow AC to continue running.  Rooms were very clean!!!  The gazebo/swimming pool area was a great place to hang out with other family members, as we did the both nights were were at hotel.  We will definitely be returning to this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r154950318-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>154950318</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Good basic hotel very convenient to Beltway 8 and IH 45 - friendly staff</t>
+  </si>
+  <si>
+    <t>If you want a decent clean hotel room without a lot of bells and whistles, this is it.  Very conveniently located for Hobby, South Houston, Beltway 8 and the Gulf Freeway.  Wireless signal and TV signal were pretty poor, but that may have been because I was as far away from the router as possible.  Might have been better closer to the office</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r154528384-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>154528384</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>Had to book a hotel last minute late at night. Used Hotwire and was given this hotel. Was skeptical but room was clean, grounds were nice, and staff was very, very friendly. Bed was comfortable too. Would stay there again. Although I will NEVER us HOTWIRE again. I used them instead of calling Best Western and Best Western had much better rate. Could not get HOTWIRE to refund difference. I'll give it average value rating based on what they would have given me if I had not used that HOTWIRE rip off.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r153478664-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1170,6 +1770,42 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r137628931-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>137628931</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>Enjoyed all of my stay.</t>
+  </si>
+  <si>
+    <t>I needed to meet a deadline and the hotel was calm, peaceful, and clean. I enjoyed the clean hot tub and pool, The room was very fresh and orderly. Liz, the front staff, wanted me to have extra towels in my room after swimming. Morning coffee was good and several breakfact selections to choose from.Landscaping and waterfall in the pool helped me meet my deadline.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r120893878-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>120893878</t>
+  </si>
+  <si>
+    <t>11/21/2011</t>
+  </si>
+  <si>
+    <t>Convenient to Hobby Airport</t>
+  </si>
+  <si>
+    <t>This hotel is a nice hotel, helpful staff, and convenient if you are flying out of Hobby Airport, since the hotel is off of Telephone Road.  The staff was very helpful and knew of the area, directing us to a good local restaurant to eat.  It is an older hotel, with the room doors on the outside, and is next to a Walmart.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r115679957-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
   </si>
   <si>
@@ -1219,6 +1855,59 @@
   </si>
   <si>
     <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r84253749-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>84253749</t>
+  </si>
+  <si>
+    <t>10/20/2010</t>
+  </si>
+  <si>
+    <t>FELT LIKE A FREIGHT TRAIN WAS BEHIND THE HOTEL</t>
+  </si>
+  <si>
+    <t>If you don't want any sleep, stay at this hotel.  The one night I stayed with my family, I hardly got any sleep due to the freight train and it's air horn blasting every hour waking me up!  In addition the "hot tub" was green and quite disgusting.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>manhardas, Manager at Best Western Pearland Inn, responded to this reviewResponded February 7, 2011</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2011</t>
+  </si>
+  <si>
+    <t>If you don't want any sleep, stay at this hotel.  The one night I stayed with my family, I hardly got any sleep due to the freight train and it's air horn blasting every hour waking me up!  In addition the "hot tub" was green and quite disgusting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r70642766-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
+  </si>
+  <si>
+    <t>70642766</t>
+  </si>
+  <si>
+    <t>07/12/2010</t>
+  </si>
+  <si>
+    <t>VERY helpful staff, great airport location</t>
+  </si>
+  <si>
+    <t>I chose this hotel because it was the closest to Hobby Airport.  We had an early morning flight and live 2 1/2 hours away.  Rooms are very clean and there is ample parking.  Pool is very well maintained.  Breakfast was a little sparse, but adequate for a continental.  
+I LOVE the location (only 7 minutes to Hobby on the SAME road).  But the BIG news here was the STAFF!!  The night clerk was friendly and helpful.  The next morning, I awoke to discover I had a dead battery in my car.  When I went in to check out, I told the manager (owner?) that I had a problem.  He just said:  "I will be happy to go get my car and jump the battery for you" .   When he went to his car, he discovered his son had taken his battery cables and so he immediately went to purchase a set of cables in order to tend to my car.  
+When he got back, he had purchased a LONG set in order to reach my battery as I was parked in between two large trucks with a large grass median separating the front of my car from access.  
+He quickly got me on my way and even gave me advice on how to get my battery checked!!
+He was so pleasant and helpful....I am very glad I chose this hotel.  And would not hesitate to visit here again, especially if...I chose this hotel because it was the closest to Hobby Airport.  We had an early morning flight and live 2 1/2 hours away.  Rooms are very clean and there is ample parking.  Pool is very well maintained.  Breakfast was a little sparse, but adequate for a continental.  I LOVE the location (only 7 minutes to Hobby on the SAME road).  But the BIG news here was the STAFF!!  The night clerk was friendly and helpful.  The next morning, I awoke to discover I had a dead battery in my car.  When I went in to check out, I told the manager (owner?) that I had a problem.  He just said:  "I will be happy to go get my car and jump the battery for you" .   When he went to his car, he discovered his son had taken his battery cables and so he immediately went to purchase a set of cables in order to tend to my car.  When he got back, he had purchased a LONG set in order to reach my battery as I was parked in between two large trucks with a large grass median separating the front of my car from access.  He quickly got me on my way and even gave me advice on how to get my battery checked!!He was so pleasant and helpful....I am very glad I chose this hotel.  And would not hesitate to visit here again, especially if I need a place to stay before flying out of Houston Hobby.  THANKS!MoreShow less</t>
+  </si>
+  <si>
+    <t>I chose this hotel because it was the closest to Hobby Airport.  We had an early morning flight and live 2 1/2 hours away.  Rooms are very clean and there is ample parking.  Pool is very well maintained.  Breakfast was a little sparse, but adequate for a continental.  
+I LOVE the location (only 7 minutes to Hobby on the SAME road).  But the BIG news here was the STAFF!!  The night clerk was friendly and helpful.  The next morning, I awoke to discover I had a dead battery in my car.  When I went in to check out, I told the manager (owner?) that I had a problem.  He just said:  "I will be happy to go get my car and jump the battery for you" .   When he went to his car, he discovered his son had taken his battery cables and so he immediately went to purchase a set of cables in order to tend to my car.  
+When he got back, he had purchased a LONG set in order to reach my battery as I was parked in between two large trucks with a large grass median separating the front of my car from access.  
+He quickly got me on my way and even gave me advice on how to get my battery checked!!
+He was so pleasant and helpful....I am very glad I chose this hotel.  And would not hesitate to visit here again, especially if...I chose this hotel because it was the closest to Hobby Airport.  We had an early morning flight and live 2 1/2 hours away.  Rooms are very clean and there is ample parking.  Pool is very well maintained.  Breakfast was a little sparse, but adequate for a continental.  I LOVE the location (only 7 minutes to Hobby on the SAME road).  But the BIG news here was the STAFF!!  The night clerk was friendly and helpful.  The next morning, I awoke to discover I had a dead battery in my car.  When I went in to check out, I told the manager (owner?) that I had a problem.  He just said:  "I will be happy to go get my car and jump the battery for you" .   When he went to his car, he discovered his son had taken his battery cables and so he immediately went to purchase a set of cables in order to tend to my car.  When he got back, he had purchased a LONG set in order to reach my battery as I was parked in between two large trucks with a large grass median separating the front of my car from access.  He quickly got me on my way and even gave me advice on how to get my battery checked!!He was so pleasant and helpful....I am very glad I chose this hotel.  And would not hesitate to visit here again, especially if I need a place to stay before flying out of Houston Hobby.  THANKS!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56432-d73283-r52614342-Best_Western_Pearland_Inn-Pearland_Texas.html</t>
@@ -1795,7 +2484,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1804,20 +2493,16 @@
         <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -1935,10 +2620,10 @@
         <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
         <v>4</v>
@@ -1947,11 +2632,11 @@
         <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1999,10 +2684,10 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
         <v>71</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2063,29 +2748,29 @@
         <v>76</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
         <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
         <v>3</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2130,29 +2815,29 @@
         <v>82</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
         <v>83</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -2160,7 +2845,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2176,7 +2861,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2185,31 +2870,31 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
         <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
         <v>5</v>
@@ -2227,7 +2912,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -2243,7 +2928,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2252,37 +2937,41 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
-      </c>
-      <c r="S9" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2306,7 +2995,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2315,41 +3004,41 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2357,7 +3046,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -2394,29 +3083,29 @@
         <v>107</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
         <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2440,50 +3129,50 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>110</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>111</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>112</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>113</v>
       </c>
-      <c r="L12" t="s">
-        <v>114</v>
-      </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2491,7 +3180,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13">
@@ -2507,34 +3196,34 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s">
         <v>116</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>117</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>118</v>
       </c>
-      <c r="K13" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" t="s">
-        <v>120</v>
-      </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2548,7 +3237,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -2564,48 +3253,58 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
         <v>122</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>123</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>124</v>
       </c>
-      <c r="K14" t="s">
-        <v>125</v>
-      </c>
-      <c r="L14" t="s">
-        <v>126</v>
-      </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="O14" t="s">
-        <v>109</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
@@ -2621,50 +3320,46 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" t="s">
         <v>128</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>129</v>
-      </c>
-      <c r="J15" t="s">
-        <v>130</v>
-      </c>
-      <c r="K15" t="s">
-        <v>131</v>
-      </c>
-      <c r="L15" t="s">
-        <v>132</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R15" t="n">
         <v>3</v>
       </c>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2672,7 +3367,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
@@ -2688,44 +3383,50 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
         <v>133</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>134</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>135</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>136</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>137</v>
       </c>
-      <c r="M16" t="n">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>138</v>
-      </c>
       <c r="O16" t="s">
-        <v>109</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2733,7 +3434,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
@@ -2749,34 +3450,34 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>139</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>140</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>141</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>142</v>
       </c>
-      <c r="L17" t="s">
-        <v>143</v>
-      </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="O17" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2800,7 +3501,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18">
@@ -2816,46 +3517,46 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" t="s">
         <v>145</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>146</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>147</v>
       </c>
-      <c r="K18" t="s">
-        <v>148</v>
-      </c>
-      <c r="L18" t="s">
-        <v>149</v>
-      </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
@@ -2867,7 +3568,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
@@ -2883,50 +3584,50 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" t="s">
         <v>151</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>152</v>
       </c>
-      <c r="J19" t="s">
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>153</v>
       </c>
-      <c r="K19" t="s">
-        <v>154</v>
-      </c>
-      <c r="L19" t="s">
-        <v>155</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>144</v>
-      </c>
       <c r="O19" t="s">
-        <v>156</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2934,7 +3635,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
@@ -2950,50 +3651,50 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>154</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
         <v>157</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="L20" t="s">
         <v>158</v>
       </c>
-      <c r="J20" t="s">
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
         <v>159</v>
       </c>
-      <c r="K20" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" t="s">
-        <v>161</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>162</v>
-      </c>
       <c r="O20" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3001,7 +3702,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
@@ -3017,58 +3718,48 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s">
         <v>163</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="L21" t="s">
         <v>164</v>
       </c>
-      <c r="J21" t="s">
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
         <v>165</v>
-      </c>
-      <c r="K21" t="s">
-        <v>166</v>
-      </c>
-      <c r="L21" t="s">
-        <v>167</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2</v>
-      </c>
-      <c r="N21" t="s">
-        <v>168</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
       </c>
-      <c r="P21" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
@@ -3084,50 +3775,44 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" t="s">
         <v>169</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L22" t="s">
         <v>170</v>
       </c>
-      <c r="J22" t="s">
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>171</v>
       </c>
-      <c r="K22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L22" t="s">
-        <v>173</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>168</v>
-      </c>
       <c r="O22" t="s">
-        <v>109</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3135,7 +3820,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23">
@@ -3151,34 +3836,34 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" t="s">
         <v>174</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>175</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>176</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>171</v>
+      </c>
+      <c r="O23" t="s">
         <v>177</v>
-      </c>
-      <c r="L23" t="s">
-        <v>178</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>179</v>
-      </c>
-      <c r="O23" t="s">
-        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3192,7 +3877,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24">
@@ -3208,58 +3893,48 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" t="s">
         <v>180</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>181</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>182</v>
       </c>
-      <c r="K24" t="s">
-        <v>183</v>
-      </c>
-      <c r="L24" t="s">
-        <v>184</v>
-      </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="O24" t="s">
-        <v>102</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25">
@@ -3275,50 +3950,50 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s">
         <v>186</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>187</v>
       </c>
-      <c r="J25" t="s">
-        <v>188</v>
-      </c>
-      <c r="K25" t="s">
-        <v>189</v>
-      </c>
-      <c r="L25" t="s">
-        <v>190</v>
-      </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="O25" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3326,7 +4001,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26">
@@ -3342,50 +4017,44 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>189</v>
+      </c>
+      <c r="J26" t="s">
+        <v>190</v>
+      </c>
+      <c r="K26" t="s">
         <v>191</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>192</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
         <v>193</v>
       </c>
-      <c r="K26" t="s">
-        <v>194</v>
-      </c>
-      <c r="L26" t="s">
-        <v>195</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>196</v>
-      </c>
       <c r="O26" t="s">
-        <v>109</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3393,7 +4062,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
@@ -3409,48 +4078,58 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" t="s">
+        <v>197</v>
+      </c>
+      <c r="L27" t="s">
         <v>198</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
         <v>199</v>
       </c>
-      <c r="J27" t="s">
-        <v>200</v>
-      </c>
-      <c r="K27" t="s">
-        <v>201</v>
-      </c>
-      <c r="L27" t="s">
-        <v>202</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>196</v>
-      </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
@@ -3466,34 +4145,34 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" t="s">
         <v>203</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>204</v>
       </c>
-      <c r="J28" t="s">
-        <v>205</v>
-      </c>
-      <c r="K28" t="s">
-        <v>206</v>
-      </c>
-      <c r="L28" t="s">
-        <v>207</v>
-      </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="O28" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3517,7 +4196,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
@@ -3533,40 +4212,40 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>205</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" t="s">
+        <v>207</v>
+      </c>
+      <c r="K29" t="s">
+        <v>208</v>
+      </c>
+      <c r="L29" t="s">
         <v>209</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
-        <v>210</v>
-      </c>
-      <c r="J29" t="s">
-        <v>211</v>
-      </c>
-      <c r="K29" t="s">
-        <v>212</v>
-      </c>
-      <c r="L29" t="s">
-        <v>213</v>
-      </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
         <v>5</v>
@@ -3584,7 +4263,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30">
@@ -3600,7 +4279,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3609,37 +4288,37 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="J30" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K30" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L30" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="O30" t="s">
         <v>59</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
         <v>4</v>
       </c>
       <c r="S30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
@@ -3651,7 +4330,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
@@ -3667,46 +4346,46 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>217</v>
+      </c>
+      <c r="J31" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" t="s">
+        <v>219</v>
+      </c>
+      <c r="L31" t="s">
         <v>220</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>221</v>
-      </c>
-      <c r="J31" t="s">
-        <v>222</v>
-      </c>
-      <c r="K31" t="s">
-        <v>223</v>
-      </c>
-      <c r="L31" t="s">
-        <v>224</v>
-      </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -3718,7 +4397,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32">
@@ -3734,7 +4413,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3743,31 +4422,35 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J32" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K32" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="L32" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="O32" t="s">
         <v>53</v>
       </c>
-      <c r="P32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
       <c r="Q32" t="n">
         <v>5</v>
       </c>
-      <c r="R32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
       <c r="S32" t="n">
         <v>5</v>
       </c>
@@ -3781,7 +4464,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33">
@@ -3797,7 +4480,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3806,35 +4489,33 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="J33" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="O33" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
@@ -3846,7 +4527,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
@@ -3862,7 +4543,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3871,25 +4552,25 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="J34" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="K34" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="L34" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="O34" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -3913,7 +4594,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35">
@@ -3929,7 +4610,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3938,37 +4619,41 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="J35" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="K35" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>242</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
         <v>3</v>
       </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
         <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
-      <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3976,7 +4661,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36">
@@ -3992,7 +4677,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4001,31 +4686,35 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J36" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K36" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L36" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
       </c>
       <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
       <c r="S36" t="n">
         <v>5</v>
       </c>
@@ -4039,7 +4728,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
@@ -4055,7 +4744,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4064,49 +4753,39 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="J37" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="K37" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="L37" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="O37" t="s">
-        <v>59</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>1</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>3</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38">
@@ -4122,7 +4801,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4131,25 +4810,25 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J38" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="K38" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L38" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="O38" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4173,7 +4852,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39">
@@ -4189,7 +4868,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4198,49 +4877,39 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="J39" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K39" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="L39" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="O39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>5</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40">
@@ -4256,7 +4925,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4265,25 +4934,25 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="J40" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K40" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L40" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="O40" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4307,7 +4976,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41">
@@ -4323,7 +4992,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4332,37 +5001,41 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="J41" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="K41" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="L41" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="O41" t="s">
-        <v>109</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4370,7 +5043,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42">
@@ -4386,7 +5059,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4395,37 +5068,37 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="J42" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="K42" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="L42" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="O42" t="s">
         <v>53</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
@@ -4437,7 +5110,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43">
@@ -4453,7 +5126,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4462,41 +5135,41 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="J43" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="K43" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="L43" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O43" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4504,7 +5177,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44">
@@ -4520,7 +5193,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4529,22 +5202,22 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="J44" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="K44" t="s">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="L44" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="O44" t="s">
         <v>53</v>
@@ -4571,7 +5244,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
@@ -4587,7 +5260,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4596,49 +5269,39 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="J45" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K45" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="L45" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="O45" t="s">
-        <v>102</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46">
@@ -4654,7 +5317,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4663,37 +5326,37 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="J46" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="K46" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="L46" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="O46" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -4705,7 +5368,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47">
@@ -4721,7 +5384,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4730,39 +5393,49 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="J47" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="K47" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="L47" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="O47" t="s">
-        <v>102</v>
-      </c>
-      <c r="P47" t="s"/>
-      <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48">
@@ -4778,7 +5451,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4787,22 +5460,22 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="J48" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="K48" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="L48" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="M48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="O48" t="s">
         <v>53</v>
@@ -4814,7 +5487,7 @@
         <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
         <v>3</v>
@@ -4829,7 +5502,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49">
@@ -4845,7 +5518,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4854,34 +5527,34 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="J49" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="K49" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L49" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
         <v>4</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -4896,7 +5569,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50">
@@ -4912,7 +5585,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4921,25 +5594,25 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J50" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="K50" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L50" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -4951,11 +5624,11 @@
         <v>4</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4963,7 +5636,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51">
@@ -4979,7 +5652,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4988,25 +5661,25 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="J51" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="K51" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="L51" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="O51" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="P51" t="n">
         <v>2</v>
@@ -5015,14 +5688,14 @@
         <v>2</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5030,7 +5703,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52">
@@ -5046,7 +5719,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5055,41 +5728,41 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="J52" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="K52" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="L52" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="O52" t="s">
         <v>59</v>
       </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5097,7 +5770,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="53">
@@ -5113,7 +5786,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5122,34 +5795,34 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="J53" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="K53" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="L53" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
         <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -5164,7 +5837,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54">
@@ -5180,7 +5853,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5189,41 +5862,37 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="J54" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="K54" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="L54" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
-      </c>
-      <c r="P54" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="n">
-        <v>4</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
       <c r="S54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5231,7 +5900,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="55">
@@ -5247,7 +5916,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5256,32 +5925,30 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="J55" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="K55" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="L55" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P55" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
         <v>5</v>
       </c>
@@ -5290,7 +5957,7 @@
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5298,7 +5965,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="56">
@@ -5314,7 +5981,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5323,44 +5990,50 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="J56" t="s">
-        <v>370</v>
-      </c>
-      <c r="K56" t="s"/>
-      <c r="L56" t="s"/>
+        <v>356</v>
+      </c>
+      <c r="K56" t="s">
+        <v>203</v>
+      </c>
+      <c r="L56" t="s">
+        <v>357</v>
+      </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="O56" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
+      <c r="Y56" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5375,7 +6048,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5384,25 +6057,25 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="J57" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="K57" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="L57" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5426,7 +6099,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="58">
@@ -5442,7 +6115,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5451,41 +6124,41 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="J58" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="K58" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="L58" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="M58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="O58" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5493,7 +6166,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59">
@@ -5509,7 +6182,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5518,37 +6191,37 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="J59" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="K59" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="L59" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
-      <c r="N59" t="s">
-        <v>389</v>
-      </c>
-      <c r="O59" t="s">
-        <v>102</v>
-      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
       <c r="P59" t="n">
         <v>3</v>
       </c>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5556,7 +6229,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="60">
@@ -5572,7 +6245,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5581,37 +6254,37 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="J60" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="K60" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="L60" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="O60" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="s"/>
       <c r="R60" t="s"/>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5619,7 +6292,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="61">
@@ -5635,7 +6308,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5644,25 +6317,25 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="J61" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="K61" t="s">
-        <v>398</v>
+        <v>36</v>
       </c>
       <c r="L61" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="O61" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -5671,14 +6344,14 @@
         <v>3</v>
       </c>
       <c r="R61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -5686,7 +6359,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62">
@@ -5702,7 +6375,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5711,25 +6384,25 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="J62" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="K62" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="L62" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>406</v>
+        <v>389</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5753,7 +6426,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
     </row>
     <row r="63">
@@ -5769,7 +6442,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5778,41 +6451,41 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="J63" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="K63" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="L63" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="O63" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="n">
         <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
         <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -5820,7 +6493,2783 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>395</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>396</v>
+      </c>
+      <c r="J64" t="s">
+        <v>397</v>
+      </c>
+      <c r="K64" t="s">
+        <v>398</v>
+      </c>
+      <c r="L64" t="s">
+        <v>399</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>400</v>
+      </c>
+      <c r="O64" t="s">
+        <v>90</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>402</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>403</v>
+      </c>
+      <c r="J65" t="s">
+        <v>404</v>
+      </c>
+      <c r="K65" t="s">
+        <v>405</v>
+      </c>
+      <c r="L65" t="s">
+        <v>406</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>407</v>
+      </c>
+      <c r="O65" t="s">
+        <v>90</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>408</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>409</v>
+      </c>
+      <c r="J66" t="s">
+        <v>410</v>
+      </c>
+      <c r="K66" t="s">
+        <v>411</v>
+      </c>
+      <c r="L66" t="s">
+        <v>412</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>413</v>
+      </c>
+      <c r="O66" t="s">
+        <v>90</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
         <v>414</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>415</v>
+      </c>
+      <c r="J67" t="s">
+        <v>416</v>
+      </c>
+      <c r="K67" t="s">
+        <v>417</v>
+      </c>
+      <c r="L67" t="s">
+        <v>418</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>413</v>
+      </c>
+      <c r="O67" t="s">
+        <v>90</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>419</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>420</v>
+      </c>
+      <c r="J68" t="s">
+        <v>421</v>
+      </c>
+      <c r="K68" t="s">
+        <v>422</v>
+      </c>
+      <c r="L68" t="s">
+        <v>423</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>424</v>
+      </c>
+      <c r="O68" t="s">
+        <v>90</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>425</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>426</v>
+      </c>
+      <c r="J69" t="s">
+        <v>427</v>
+      </c>
+      <c r="K69" t="s">
+        <v>428</v>
+      </c>
+      <c r="L69" t="s">
+        <v>429</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>424</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>431</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>432</v>
+      </c>
+      <c r="J70" t="s">
+        <v>433</v>
+      </c>
+      <c r="K70" t="s">
+        <v>434</v>
+      </c>
+      <c r="L70" t="s">
+        <v>435</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>436</v>
+      </c>
+      <c r="O70" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>437</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>438</v>
+      </c>
+      <c r="J71" t="s">
+        <v>439</v>
+      </c>
+      <c r="K71" t="s">
+        <v>440</v>
+      </c>
+      <c r="L71" t="s">
+        <v>441</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>436</v>
+      </c>
+      <c r="O71" t="s">
+        <v>90</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>442</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>443</v>
+      </c>
+      <c r="J72" t="s">
+        <v>444</v>
+      </c>
+      <c r="K72" t="s">
+        <v>445</v>
+      </c>
+      <c r="L72" t="s">
+        <v>446</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>447</v>
+      </c>
+      <c r="O72" t="s">
+        <v>71</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>448</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>449</v>
+      </c>
+      <c r="J73" t="s">
+        <v>450</v>
+      </c>
+      <c r="K73" t="s">
+        <v>451</v>
+      </c>
+      <c r="L73" t="s">
+        <v>452</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>447</v>
+      </c>
+      <c r="O73" t="s">
+        <v>90</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>453</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>454</v>
+      </c>
+      <c r="J74" t="s">
+        <v>455</v>
+      </c>
+      <c r="K74" t="s">
+        <v>39</v>
+      </c>
+      <c r="L74" t="s">
+        <v>456</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>457</v>
+      </c>
+      <c r="O74" t="s">
+        <v>59</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>458</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>459</v>
+      </c>
+      <c r="J75" t="s">
+        <v>460</v>
+      </c>
+      <c r="K75" t="s">
+        <v>461</v>
+      </c>
+      <c r="L75" t="s">
+        <v>462</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>457</v>
+      </c>
+      <c r="O75" t="s">
+        <v>90</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>463</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>464</v>
+      </c>
+      <c r="J76" t="s">
+        <v>465</v>
+      </c>
+      <c r="K76" t="s">
+        <v>466</v>
+      </c>
+      <c r="L76" t="s">
+        <v>467</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>468</v>
+      </c>
+      <c r="O76" t="s">
+        <v>90</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>469</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>470</v>
+      </c>
+      <c r="J77" t="s">
+        <v>471</v>
+      </c>
+      <c r="K77" t="s">
+        <v>472</v>
+      </c>
+      <c r="L77" t="s">
+        <v>473</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>468</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>474</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>475</v>
+      </c>
+      <c r="J78" t="s">
+        <v>476</v>
+      </c>
+      <c r="K78" t="s">
+        <v>477</v>
+      </c>
+      <c r="L78" t="s">
+        <v>478</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>479</v>
+      </c>
+      <c r="O78" t="s">
+        <v>59</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>480</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>481</v>
+      </c>
+      <c r="J79" t="s">
+        <v>482</v>
+      </c>
+      <c r="K79" t="s">
+        <v>483</v>
+      </c>
+      <c r="L79" t="s">
+        <v>484</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>479</v>
+      </c>
+      <c r="O79" t="s">
+        <v>90</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>486</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>487</v>
+      </c>
+      <c r="J80" t="s">
+        <v>488</v>
+      </c>
+      <c r="K80" t="s">
+        <v>489</v>
+      </c>
+      <c r="L80" t="s">
+        <v>490</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>491</v>
+      </c>
+      <c r="O80" t="s">
+        <v>59</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>3</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>492</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>493</v>
+      </c>
+      <c r="J81" t="s">
+        <v>494</v>
+      </c>
+      <c r="K81" t="s">
+        <v>495</v>
+      </c>
+      <c r="L81" t="s">
+        <v>496</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>497</v>
+      </c>
+      <c r="O81" t="s">
+        <v>59</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>498</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>499</v>
+      </c>
+      <c r="J82" t="s">
+        <v>500</v>
+      </c>
+      <c r="K82" t="s">
+        <v>501</v>
+      </c>
+      <c r="L82" t="s">
+        <v>502</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>503</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>504</v>
+      </c>
+      <c r="J83" t="s">
+        <v>505</v>
+      </c>
+      <c r="K83" t="s">
+        <v>506</v>
+      </c>
+      <c r="L83" t="s">
+        <v>507</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>508</v>
+      </c>
+      <c r="O83" t="s">
+        <v>59</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>509</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>510</v>
+      </c>
+      <c r="J84" t="s">
+        <v>511</v>
+      </c>
+      <c r="K84" t="s">
+        <v>512</v>
+      </c>
+      <c r="L84" t="s">
+        <v>513</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>508</v>
+      </c>
+      <c r="O84" t="s">
+        <v>59</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>514</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>515</v>
+      </c>
+      <c r="J85" t="s">
+        <v>516</v>
+      </c>
+      <c r="K85" t="s">
+        <v>517</v>
+      </c>
+      <c r="L85" t="s">
+        <v>518</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>508</v>
+      </c>
+      <c r="O85" t="s">
+        <v>90</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>519</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>520</v>
+      </c>
+      <c r="J86" t="s">
+        <v>521</v>
+      </c>
+      <c r="K86" t="s">
+        <v>522</v>
+      </c>
+      <c r="L86" t="s">
+        <v>523</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>508</v>
+      </c>
+      <c r="O86" t="s">
+        <v>71</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>525</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>526</v>
+      </c>
+      <c r="J87" t="s">
+        <v>527</v>
+      </c>
+      <c r="K87" t="s">
+        <v>528</v>
+      </c>
+      <c r="L87" t="s">
+        <v>529</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>531</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>532</v>
+      </c>
+      <c r="J88" t="s">
+        <v>533</v>
+      </c>
+      <c r="K88" t="s">
+        <v>534</v>
+      </c>
+      <c r="L88" t="s">
+        <v>535</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>536</v>
+      </c>
+      <c r="O88" t="s">
+        <v>59</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>538</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>539</v>
+      </c>
+      <c r="J89" t="s">
+        <v>540</v>
+      </c>
+      <c r="K89" t="s">
+        <v>541</v>
+      </c>
+      <c r="L89" t="s">
+        <v>542</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>543</v>
+      </c>
+      <c r="O89" t="s">
+        <v>59</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>545</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>546</v>
+      </c>
+      <c r="J90" t="s">
+        <v>547</v>
+      </c>
+      <c r="K90" t="s">
+        <v>548</v>
+      </c>
+      <c r="L90" t="s">
+        <v>549</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>550</v>
+      </c>
+      <c r="O90" t="s">
+        <v>59</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>552</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>553</v>
+      </c>
+      <c r="J91" t="s">
+        <v>554</v>
+      </c>
+      <c r="K91" t="s">
+        <v>555</v>
+      </c>
+      <c r="L91" t="s">
+        <v>556</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>550</v>
+      </c>
+      <c r="O91" t="s">
+        <v>59</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>558</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>559</v>
+      </c>
+      <c r="J92" t="s">
+        <v>560</v>
+      </c>
+      <c r="K92" t="s">
+        <v>561</v>
+      </c>
+      <c r="L92" t="s">
+        <v>562</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>550</v>
+      </c>
+      <c r="O92" t="s">
+        <v>59</v>
+      </c>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>563</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>564</v>
+      </c>
+      <c r="J93" t="s">
+        <v>565</v>
+      </c>
+      <c r="K93" t="s">
+        <v>566</v>
+      </c>
+      <c r="L93" t="s">
+        <v>567</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>550</v>
+      </c>
+      <c r="O93" t="s">
+        <v>90</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>568</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>569</v>
+      </c>
+      <c r="J94" t="s">
+        <v>570</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>571</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>572</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>573</v>
+      </c>
+      <c r="J95" t="s">
+        <v>574</v>
+      </c>
+      <c r="K95" t="s">
+        <v>575</v>
+      </c>
+      <c r="L95" t="s">
+        <v>576</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>577</v>
+      </c>
+      <c r="O95" t="s">
+        <v>59</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>578</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>579</v>
+      </c>
+      <c r="J96" t="s">
+        <v>580</v>
+      </c>
+      <c r="K96" t="s">
+        <v>581</v>
+      </c>
+      <c r="L96" t="s">
+        <v>582</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>583</v>
+      </c>
+      <c r="O96" t="s">
+        <v>71</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>584</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>585</v>
+      </c>
+      <c r="J97" t="s">
+        <v>586</v>
+      </c>
+      <c r="K97" t="s">
+        <v>587</v>
+      </c>
+      <c r="L97" t="s">
+        <v>588</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>589</v>
+      </c>
+      <c r="O97" t="s">
+        <v>90</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>590</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>591</v>
+      </c>
+      <c r="J98" t="s">
+        <v>592</v>
+      </c>
+      <c r="K98" t="s">
+        <v>593</v>
+      </c>
+      <c r="L98" t="s">
+        <v>594</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>595</v>
+      </c>
+      <c r="O98" t="s">
+        <v>59</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>596</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>597</v>
+      </c>
+      <c r="J99" t="s">
+        <v>598</v>
+      </c>
+      <c r="K99" t="s">
+        <v>599</v>
+      </c>
+      <c r="L99" t="s">
+        <v>600</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>601</v>
+      </c>
+      <c r="O99" t="s">
+        <v>90</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>602</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>603</v>
+      </c>
+      <c r="J100" t="s">
+        <v>604</v>
+      </c>
+      <c r="K100" t="s">
+        <v>605</v>
+      </c>
+      <c r="L100" t="s">
+        <v>606</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>601</v>
+      </c>
+      <c r="O100" t="s">
+        <v>90</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="n">
+        <v>2</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>607</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>608</v>
+      </c>
+      <c r="J101" t="s">
+        <v>609</v>
+      </c>
+      <c r="K101" t="s">
+        <v>610</v>
+      </c>
+      <c r="L101" t="s">
+        <v>611</v>
+      </c>
+      <c r="M101" t="n">
+        <v>3</v>
+      </c>
+      <c r="N101" t="s">
+        <v>612</v>
+      </c>
+      <c r="O101" t="s">
+        <v>177</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>613</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>614</v>
+      </c>
+      <c r="J102" t="s">
+        <v>615</v>
+      </c>
+      <c r="K102" t="s">
+        <v>616</v>
+      </c>
+      <c r="L102" t="s">
+        <v>617</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>618</v>
+      </c>
+      <c r="O102" t="s">
+        <v>59</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>619</v>
+      </c>
+      <c r="X102" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>622</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>623</v>
+      </c>
+      <c r="J103" t="s">
+        <v>624</v>
+      </c>
+      <c r="K103" t="s">
+        <v>625</v>
+      </c>
+      <c r="L103" t="s">
+        <v>626</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>628</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>629</v>
+      </c>
+      <c r="J104" t="s">
+        <v>630</v>
+      </c>
+      <c r="K104" t="s">
+        <v>631</v>
+      </c>
+      <c r="L104" t="s">
+        <v>632</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>633</v>
+      </c>
+      <c r="O104" t="s">
+        <v>59</v>
+      </c>
+      <c r="P104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>33159</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>635</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>636</v>
+      </c>
+      <c r="J105" t="s">
+        <v>637</v>
+      </c>
+      <c r="K105" t="s">
+        <v>638</v>
+      </c>
+      <c r="L105" t="s">
+        <v>639</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>640</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>
